--- a/Load/ontology/Microbiome/doc/Microbiome_conversion_eda.xlsx
+++ b/Load/ontology/Microbiome/doc/Microbiome_conversion_eda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/VEuPathDB-git/ApiCommonData/Load/ontology/Microbiome/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BF566-EAC4-E043-B0DA-3B7ABAE9B5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF2CC4-52EC-C44B-8098-AAC4BC83ADCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="26480" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="26200" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microbiome_conversion_eda" sheetId="1" r:id="rId1"/>
@@ -5362,9 +5362,6 @@
     <t>1 variable used in both human and environment samples</t>
   </si>
   <si>
-    <t>7 non-human dataFiles</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -6422,6 +6419,9 @@
   </si>
   <si>
     <t>Moved for human participant, might keep for animal, need to use different term, like 'Animal common name'</t>
+  </si>
+  <si>
+    <t>7 non-human only dataFiles</t>
   </si>
 </sst>
 </file>
@@ -7373,17 +7373,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O947"/>
   <sheetViews>
-    <sheetView topLeftCell="A706" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="O708" sqref="O708"/>
+      <selection pane="topRight" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="4" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" customWidth="1"/>
@@ -7437,7 +7438,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>1756</v>
@@ -7734,7 +7735,7 @@
         <v>21</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
@@ -7762,7 +7763,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -7775,7 +7776,7 @@
       </c>
       <c r="N10"/>
       <c r="O10" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
@@ -7860,10 +7861,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D13" t="s">
         <v>1782</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1783</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -8230,7 +8231,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D23" t="s">
         <v>1229</v>
@@ -8326,10 +8327,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D26" t="s">
         <v>1785</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1786</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
@@ -8631,7 +8632,7 @@
         <v>683</v>
       </c>
       <c r="B35" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C35" t="s">
         <v>685</v>
@@ -8661,7 +8662,7 @@
         <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -8669,7 +8670,7 @@
         <v>683</v>
       </c>
       <c r="B36" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C36" t="s">
         <v>789</v>
@@ -8699,7 +8700,7 @@
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -8707,7 +8708,7 @@
         <v>683</v>
       </c>
       <c r="B37" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C37" t="s">
         <v>808</v>
@@ -8737,7 +8738,7 @@
         <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -9585,10 +9586,10 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D61" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -9900,7 +9901,7 @@
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D70" t="s">
         <v>1229</v>
@@ -10034,10 +10035,10 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D74" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -10104,7 +10105,7 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D76" t="s">
         <v>1661</v>
@@ -10432,7 +10433,7 @@
         <v>21</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -10440,7 +10441,7 @@
         <v>828</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>830</v>
@@ -10451,10 +10452,10 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="12" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>2103</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>2104</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>2</v>
@@ -10470,7 +10471,7 @@
         <v>21</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -10507,10 +10508,10 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B87" t="s">
         <v>1793</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1794</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -10519,10 +10520,10 @@
         <v>84</v>
       </c>
       <c r="G87" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H87" t="s">
         <v>1795</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1796</v>
       </c>
       <c r="I87" t="s">
         <v>2</v>
@@ -10539,10 +10540,10 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B88" t="s">
         <v>1793</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1794</v>
       </c>
       <c r="C88" t="s">
         <v>141</v>
@@ -10551,10 +10552,10 @@
         <v>136</v>
       </c>
       <c r="G88" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H88" t="s">
         <v>1795</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1796</v>
       </c>
       <c r="I88" t="s">
         <v>2</v>
@@ -10571,10 +10572,10 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B89" t="s">
         <v>1793</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1794</v>
       </c>
       <c r="C89" t="s">
         <v>234</v>
@@ -10583,10 +10584,10 @@
         <v>231</v>
       </c>
       <c r="G89" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H89" t="s">
         <v>1795</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1796</v>
       </c>
       <c r="I89" t="s">
         <v>2</v>
@@ -10603,10 +10604,10 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B90" t="s">
         <v>1793</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1794</v>
       </c>
       <c r="C90" t="s">
         <v>341</v>
@@ -10615,10 +10616,10 @@
         <v>325</v>
       </c>
       <c r="G90" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H90" t="s">
         <v>1795</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1796</v>
       </c>
       <c r="I90" t="s">
         <v>2</v>
@@ -10635,22 +10636,22 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B91" t="s">
         <v>1793</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G91" t="s">
         <v>1794</v>
       </c>
-      <c r="C91" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1783</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>1795</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1796</v>
       </c>
       <c r="I91" t="s">
         <v>2</v>
@@ -10667,10 +10668,10 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B92" t="s">
         <v>1793</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1794</v>
       </c>
       <c r="C92" t="s">
         <v>481</v>
@@ -10679,10 +10680,10 @@
         <v>457</v>
       </c>
       <c r="G92" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H92" t="s">
         <v>1795</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1796</v>
       </c>
       <c r="I92" t="s">
         <v>2</v>
@@ -10699,10 +10700,10 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B93" t="s">
         <v>1793</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1794</v>
       </c>
       <c r="C93" t="s">
         <v>733</v>
@@ -10711,10 +10712,10 @@
         <v>682</v>
       </c>
       <c r="G93" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H93" t="s">
         <v>1795</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1796</v>
       </c>
       <c r="I93" t="s">
         <v>2</v>
@@ -10731,10 +10732,10 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B94" t="s">
         <v>1793</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1794</v>
       </c>
       <c r="C94" t="s">
         <v>793</v>
@@ -10743,10 +10744,10 @@
         <v>788</v>
       </c>
       <c r="G94" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H94" t="s">
         <v>1795</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1796</v>
       </c>
       <c r="I94" t="s">
         <v>2</v>
@@ -10763,10 +10764,10 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B95" t="s">
         <v>1793</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1794</v>
       </c>
       <c r="C95" t="s">
         <v>812</v>
@@ -10775,10 +10776,10 @@
         <v>807</v>
       </c>
       <c r="G95" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H95" t="s">
         <v>1795</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1796</v>
       </c>
       <c r="I95" t="s">
         <v>2</v>
@@ -10795,10 +10796,10 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B96" t="s">
         <v>1793</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1794</v>
       </c>
       <c r="C96" t="s">
         <v>969</v>
@@ -10807,10 +10808,10 @@
         <v>967</v>
       </c>
       <c r="G96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H96" t="s">
         <v>1795</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1796</v>
       </c>
       <c r="I96" t="s">
         <v>2</v>
@@ -10827,10 +10828,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B97" t="s">
         <v>1793</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1794</v>
       </c>
       <c r="C97" t="s">
         <v>1212</v>
@@ -10839,10 +10840,10 @@
         <v>1210</v>
       </c>
       <c r="G97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H97" t="s">
         <v>1795</v>
-      </c>
-      <c r="H97" t="s">
-        <v>1796</v>
       </c>
       <c r="I97" t="s">
         <v>2</v>
@@ -10859,10 +10860,10 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B98" t="s">
         <v>1793</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1794</v>
       </c>
       <c r="C98" t="s">
         <v>1238</v>
@@ -10871,10 +10872,10 @@
         <v>1235</v>
       </c>
       <c r="G98" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H98" t="s">
         <v>1795</v>
-      </c>
-      <c r="H98" t="s">
-        <v>1796</v>
       </c>
       <c r="I98" t="s">
         <v>2</v>
@@ -10891,10 +10892,10 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B99" t="s">
         <v>1793</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1794</v>
       </c>
       <c r="C99" t="s">
         <v>1433</v>
@@ -10903,10 +10904,10 @@
         <v>1428</v>
       </c>
       <c r="G99" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H99" t="s">
         <v>1795</v>
-      </c>
-      <c r="H99" t="s">
-        <v>1796</v>
       </c>
       <c r="I99" t="s">
         <v>2</v>
@@ -10923,22 +10924,22 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B100" t="s">
         <v>1793</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G100" t="s">
         <v>1794</v>
       </c>
-      <c r="C100" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>1795</v>
-      </c>
-      <c r="H100" t="s">
-        <v>1796</v>
       </c>
       <c r="I100" t="s">
         <v>2</v>
@@ -10955,10 +10956,10 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B101" t="s">
         <v>1793</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1794</v>
       </c>
       <c r="C101" t="s">
         <v>1637</v>
@@ -10967,10 +10968,10 @@
         <v>1634</v>
       </c>
       <c r="G101" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H101" t="s">
         <v>1795</v>
-      </c>
-      <c r="H101" t="s">
-        <v>1796</v>
       </c>
       <c r="I101" t="s">
         <v>2</v>
@@ -10987,10 +10988,10 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B102" t="s">
         <v>1795</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1796</v>
       </c>
       <c r="G102" t="s">
         <v>1703</v>
@@ -11010,10 +11011,10 @@
         <v>1065</v>
       </c>
       <c r="G103" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H103" t="s">
         <v>1799</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1800</v>
       </c>
       <c r="I103" t="s">
         <v>2</v>
@@ -11030,16 +11031,16 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B104" t="s">
         <v>1801</v>
       </c>
-      <c r="B104" t="s">
-        <v>1802</v>
-      </c>
       <c r="G104" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H104" t="s">
         <v>1795</v>
-      </c>
-      <c r="H104" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -11050,10 +11051,10 @@
         <v>1549</v>
       </c>
       <c r="G105" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H105" t="s">
         <v>1795</v>
-      </c>
-      <c r="H105" t="s">
-        <v>1796</v>
       </c>
       <c r="I105" t="s">
         <v>10</v>
@@ -11067,32 +11068,32 @@
         <v>1701</v>
       </c>
       <c r="G106" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H106" t="s">
         <v>1795</v>
-      </c>
-      <c r="H106" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B107" t="s">
         <v>1803</v>
       </c>
-      <c r="B107" t="s">
-        <v>1804</v>
-      </c>
       <c r="G107" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H107" t="s">
         <v>1795</v>
-      </c>
-      <c r="H107" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B108" t="s">
         <v>1805</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1806</v>
       </c>
       <c r="C108" t="s">
         <v>339</v>
@@ -11104,10 +11105,10 @@
         <v>340</v>
       </c>
       <c r="G108" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H108" t="s">
         <v>1807</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1808</v>
       </c>
       <c r="I108" t="s">
         <v>2</v>
@@ -11171,10 +11172,10 @@
         <v>1065</v>
       </c>
       <c r="G110" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H110" t="s">
         <v>1809</v>
-      </c>
-      <c r="H110" t="s">
-        <v>1810</v>
       </c>
       <c r="I110" t="s">
         <v>2</v>
@@ -11476,7 +11477,7 @@
         <v>330</v>
       </c>
       <c r="B119" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C119" t="s">
         <v>331</v>
@@ -11511,13 +11512,13 @@
         <v>330</v>
       </c>
       <c r="B120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C120" t="s">
         <v>1811</v>
       </c>
-      <c r="C120" t="s">
-        <v>1812</v>
-      </c>
       <c r="D120" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E120" t="s">
         <v>332</v>
@@ -11546,7 +11547,7 @@
         <v>330</v>
       </c>
       <c r="B121" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C121" t="s">
         <v>703</v>
@@ -11581,7 +11582,7 @@
         <v>330</v>
       </c>
       <c r="B122" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C122" t="s">
         <v>1237</v>
@@ -11613,7 +11614,7 @@
         <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C123" t="s">
         <v>1431</v>
@@ -11648,13 +11649,13 @@
         <v>330</v>
       </c>
       <c r="B124" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C124" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D124" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E124" t="s">
         <v>332</v>
@@ -11683,7 +11684,7 @@
         <v>330</v>
       </c>
       <c r="B125" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C125" t="s">
         <v>1636</v>
@@ -11718,7 +11719,7 @@
         <v>330</v>
       </c>
       <c r="B126" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C126" t="s">
         <v>1668</v>
@@ -11814,7 +11815,7 @@
         <v>21</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -11852,7 +11853,7 @@
         <v>21</v>
       </c>
       <c r="N129" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -11892,7 +11893,7 @@
         <v>21</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -11903,10 +11904,10 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H131" t="s">
         <v>1815</v>
-      </c>
-      <c r="H131" t="s">
-        <v>1816</v>
       </c>
       <c r="I131" t="s">
         <v>10</v>
@@ -12093,7 +12094,7 @@
         <v>21</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -12721,13 +12722,13 @@
         <v>238</v>
       </c>
       <c r="F155" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G155" t="s">
         <v>1817</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>1818</v>
-      </c>
-      <c r="H155" t="s">
-        <v>1819</v>
       </c>
       <c r="I155" t="s">
         <v>2</v>
@@ -12762,10 +12763,10 @@
         <v>294</v>
       </c>
       <c r="G156" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>1818</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>1819</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>2</v>
@@ -12929,7 +12930,7 @@
         <v>251</v>
       </c>
       <c r="B161" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C161" t="s">
         <v>253</v>
@@ -13013,13 +13014,13 @@
         <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G163" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H163" t="s">
         <v>1795</v>
-      </c>
-      <c r="H163" t="s">
-        <v>1796</v>
       </c>
       <c r="I163" t="s">
         <v>2</v>
@@ -13042,22 +13043,22 @@
         <v>46</v>
       </c>
       <c r="C164" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D164" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E164" t="s">
         <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G164" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H164" t="s">
         <v>1795</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1796</v>
       </c>
       <c r="I164" t="s">
         <v>2</v>
@@ -13086,10 +13087,10 @@
         <v>1235</v>
       </c>
       <c r="G165" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H165" t="s">
         <v>1795</v>
-      </c>
-      <c r="H165" t="s">
-        <v>1796</v>
       </c>
       <c r="I165" t="s">
         <v>2</v>
@@ -13121,13 +13122,13 @@
         <v>48</v>
       </c>
       <c r="F166" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G166" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H166" t="s">
         <v>1795</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1796</v>
       </c>
       <c r="I166" t="s">
         <v>2</v>
@@ -13266,10 +13267,10 @@
         <v>97</v>
       </c>
       <c r="G170" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H170" t="s">
         <v>1795</v>
-      </c>
-      <c r="H170" t="s">
-        <v>1796</v>
       </c>
       <c r="I170" t="s">
         <v>10</v>
@@ -13283,10 +13284,10 @@
         <v>359</v>
       </c>
       <c r="C171" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D171" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E171" t="s">
         <v>360</v>
@@ -13318,10 +13319,10 @@
         <v>1284</v>
       </c>
       <c r="G172" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H172" t="s">
         <v>1795</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -13462,16 +13463,16 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B177" t="s">
         <v>1824</v>
       </c>
-      <c r="B177" t="s">
+      <c r="G177" t="s">
         <v>1825</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>1826</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1827</v>
       </c>
       <c r="I177" t="s">
         <v>10</v>
@@ -13479,16 +13480,16 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B178" t="s">
         <v>1828</v>
       </c>
-      <c r="B178" t="s">
-        <v>1829</v>
-      </c>
       <c r="G178" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H178" t="s">
         <v>1826</v>
-      </c>
-      <c r="H178" t="s">
-        <v>1827</v>
       </c>
       <c r="I178" t="s">
         <v>10</v>
@@ -13496,16 +13497,16 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B179" t="s">
         <v>1830</v>
       </c>
-      <c r="B179" t="s">
-        <v>1831</v>
-      </c>
       <c r="G179" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H179" t="s">
         <v>1826</v>
-      </c>
-      <c r="H179" t="s">
-        <v>1827</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -13513,16 +13514,16 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B180" t="s">
         <v>1832</v>
       </c>
-      <c r="B180" t="s">
-        <v>1833</v>
-      </c>
       <c r="G180" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H180" t="s">
         <v>1826</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1827</v>
       </c>
       <c r="I180" t="s">
         <v>10</v>
@@ -13530,16 +13531,16 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B181" t="s">
         <v>1834</v>
       </c>
-      <c r="B181" t="s">
-        <v>1835</v>
-      </c>
       <c r="G181" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H181" t="s">
         <v>1826</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1827</v>
       </c>
       <c r="I181" t="s">
         <v>10</v>
@@ -13547,16 +13548,16 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B182" t="s">
         <v>1836</v>
       </c>
-      <c r="B182" t="s">
-        <v>1837</v>
-      </c>
       <c r="G182" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H182" t="s">
         <v>1826</v>
-      </c>
-      <c r="H182" t="s">
-        <v>1827</v>
       </c>
       <c r="I182" t="s">
         <v>10</v>
@@ -13612,7 +13613,7 @@
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>90</v>
@@ -13634,7 +13635,7 @@
         <v>21</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -13652,7 +13653,7 @@
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>90</v>
@@ -13674,7 +13675,7 @@
         <v>21</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -13976,7 +13977,7 @@
         <v>231</v>
       </c>
       <c r="F194" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G194" t="s">
         <v>249</v>
@@ -14106,7 +14107,7 @@
         <v>267</v>
       </c>
       <c r="B198" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C198" t="s">
         <v>269</v>
@@ -14115,11 +14116,11 @@
         <v>231</v>
       </c>
       <c r="G198" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H198" t="s">
         <v>1795</v>
       </c>
-      <c r="H198" t="s">
-        <v>1796</v>
-      </c>
       <c r="I198" t="s">
         <v>2</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>21</v>
       </c>
       <c r="N198" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -14257,10 +14258,10 @@
         <v>951</v>
       </c>
       <c r="G202" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H202" t="s">
         <v>1818</v>
-      </c>
-      <c r="H202" t="s">
-        <v>1819</v>
       </c>
       <c r="I202" t="s">
         <v>2</v>
@@ -14280,7 +14281,7 @@
         <v>1435</v>
       </c>
       <c r="B203" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C203" t="s">
         <v>1436</v>
@@ -14307,7 +14308,7 @@
         <v>21</v>
       </c>
       <c r="N203" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -14315,13 +14316,13 @@
         <v>1435</v>
       </c>
       <c r="B204" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C204" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D204" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G204" t="s">
         <v>96</v>
@@ -14342,7 +14343,7 @@
         <v>21</v>
       </c>
       <c r="N204" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -14359,10 +14360,10 @@
         <v>1210</v>
       </c>
       <c r="G205" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H205" t="s">
         <v>1818</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1819</v>
       </c>
       <c r="I205" t="s">
         <v>2</v>
@@ -14519,10 +14520,10 @@
         <v>84</v>
       </c>
       <c r="G210" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H210" t="s">
         <v>1844</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1845</v>
       </c>
       <c r="I210" t="s">
         <v>2</v>
@@ -14551,10 +14552,10 @@
         <v>84</v>
       </c>
       <c r="G211" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H211" t="s">
         <v>1846</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1847</v>
       </c>
       <c r="I211" t="s">
         <v>2</v>
@@ -14583,10 +14584,10 @@
         <v>457</v>
       </c>
       <c r="G212" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H212" t="s">
         <v>1801</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1802</v>
       </c>
       <c r="I212" t="s">
         <v>2</v>
@@ -14626,10 +14627,10 @@
         <v>362</v>
       </c>
       <c r="C214" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D214" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E214" t="s">
         <v>362</v>
@@ -14693,10 +14694,10 @@
         <v>366</v>
       </c>
       <c r="C216" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D216" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E216" t="s">
         <v>366</v>
@@ -14728,10 +14729,10 @@
         <v>368</v>
       </c>
       <c r="C217" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D217" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E217" t="s">
         <v>368</v>
@@ -14795,10 +14796,10 @@
         <v>370</v>
       </c>
       <c r="C219" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D219" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E219" t="s">
         <v>371</v>
@@ -14827,13 +14828,13 @@
         <v>374</v>
       </c>
       <c r="B220" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C220" t="s">
         <v>1852</v>
       </c>
-      <c r="C220" t="s">
-        <v>1853</v>
-      </c>
       <c r="D220" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E220" t="s">
         <v>375</v>
@@ -14857,7 +14858,7 @@
         <v>21</v>
       </c>
       <c r="N220" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -14865,13 +14866,13 @@
         <v>378</v>
       </c>
       <c r="B221" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C221" t="s">
         <v>1854</v>
       </c>
-      <c r="C221" t="s">
-        <v>1855</v>
-      </c>
       <c r="D221" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E221" t="s">
         <v>379</v>
@@ -14895,7 +14896,7 @@
         <v>21</v>
       </c>
       <c r="N221" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -14903,13 +14904,13 @@
         <v>380</v>
       </c>
       <c r="B222" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C222" t="s">
         <v>1856</v>
       </c>
-      <c r="C222" t="s">
-        <v>1857</v>
-      </c>
       <c r="D222" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E222" t="s">
         <v>381</v>
@@ -14941,10 +14942,10 @@
         <v>383</v>
       </c>
       <c r="C223" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D223" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E223" t="s">
         <v>384</v>
@@ -14976,10 +14977,10 @@
         <v>386</v>
       </c>
       <c r="C224" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D224" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E224" t="s">
         <v>387</v>
@@ -15011,10 +15012,10 @@
         <v>389</v>
       </c>
       <c r="C225" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D225" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E225" t="s">
         <v>390</v>
@@ -15046,10 +15047,10 @@
         <v>392</v>
       </c>
       <c r="C226" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D226" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E226" t="s">
         <v>393</v>
@@ -15081,10 +15082,10 @@
         <v>397</v>
       </c>
       <c r="C227" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D227" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E227" t="s">
         <v>398</v>
@@ -15116,10 +15117,10 @@
         <v>400</v>
       </c>
       <c r="C228" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D228" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E228" t="s">
         <v>401</v>
@@ -15151,10 +15152,10 @@
         <v>403</v>
       </c>
       <c r="C229" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D229" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E229" t="s">
         <v>404</v>
@@ -15186,10 +15187,10 @@
         <v>406</v>
       </c>
       <c r="C230" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D230" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E230" t="s">
         <v>407</v>
@@ -15218,13 +15219,13 @@
         <v>408</v>
       </c>
       <c r="B231" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C231" t="s">
         <v>1866</v>
       </c>
-      <c r="C231" t="s">
-        <v>1867</v>
-      </c>
       <c r="D231" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E231" t="s">
         <v>409</v>
@@ -15248,7 +15249,7 @@
         <v>21</v>
       </c>
       <c r="N231" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -15256,13 +15257,13 @@
         <v>410</v>
       </c>
       <c r="B232" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C232" t="s">
         <v>1869</v>
       </c>
-      <c r="C232" t="s">
-        <v>1870</v>
-      </c>
       <c r="D232" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E232" t="s">
         <v>411</v>
@@ -15286,7 +15287,7 @@
         <v>21</v>
       </c>
       <c r="N232" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -15294,13 +15295,13 @@
         <v>412</v>
       </c>
       <c r="B233" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C233" t="s">
         <v>1872</v>
       </c>
-      <c r="C233" t="s">
-        <v>1873</v>
-      </c>
       <c r="D233" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E233" t="s">
         <v>413</v>
@@ -15324,7 +15325,7 @@
         <v>21</v>
       </c>
       <c r="N233" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -15332,13 +15333,13 @@
         <v>414</v>
       </c>
       <c r="B234" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C234" t="s">
         <v>1875</v>
       </c>
-      <c r="C234" t="s">
-        <v>1876</v>
-      </c>
       <c r="D234" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E234" t="s">
         <v>415</v>
@@ -15362,7 +15363,7 @@
         <v>21</v>
       </c>
       <c r="N234" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -15370,13 +15371,13 @@
         <v>416</v>
       </c>
       <c r="B235" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C235" t="s">
         <v>1878</v>
       </c>
-      <c r="C235" t="s">
-        <v>1879</v>
-      </c>
       <c r="D235" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E235" t="s">
         <v>417</v>
@@ -15400,7 +15401,7 @@
         <v>21</v>
       </c>
       <c r="N235" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -15408,13 +15409,13 @@
         <v>418</v>
       </c>
       <c r="B236" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C236" t="s">
         <v>1880</v>
       </c>
-      <c r="C236" t="s">
-        <v>1881</v>
-      </c>
       <c r="D236" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E236" t="s">
         <v>419</v>
@@ -15438,7 +15439,7 @@
         <v>21</v>
       </c>
       <c r="N236" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -15446,13 +15447,13 @@
         <v>420</v>
       </c>
       <c r="B237" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C237" t="s">
         <v>1882</v>
       </c>
-      <c r="C237" t="s">
-        <v>1883</v>
-      </c>
       <c r="D237" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E237" t="s">
         <v>421</v>
@@ -15476,7 +15477,7 @@
         <v>21</v>
       </c>
       <c r="N237" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -15484,13 +15485,13 @@
         <v>422</v>
       </c>
       <c r="B238" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C238" t="s">
         <v>1884</v>
       </c>
-      <c r="C238" t="s">
-        <v>1885</v>
-      </c>
       <c r="D238" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E238" t="s">
         <v>424</v>
@@ -15514,7 +15515,7 @@
         <v>21</v>
       </c>
       <c r="N238" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -15522,7 +15523,7 @@
         <v>422</v>
       </c>
       <c r="B239" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G239" t="s">
         <v>156</v>
@@ -15534,7 +15535,7 @@
         <v>10</v>
       </c>
       <c r="N239" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -15542,19 +15543,19 @@
         <v>427</v>
       </c>
       <c r="B240" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G240" t="s">
         <v>422</v>
       </c>
       <c r="H240" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I240" t="s">
         <v>2</v>
@@ -15569,7 +15570,7 @@
         <v>21</v>
       </c>
       <c r="N240" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -15577,19 +15578,19 @@
         <v>428</v>
       </c>
       <c r="B241" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C241" t="s">
         <v>1889</v>
       </c>
-      <c r="C241" t="s">
-        <v>1890</v>
-      </c>
       <c r="D241" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G241" t="s">
         <v>422</v>
       </c>
       <c r="H241" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I241" t="s">
         <v>2</v>
@@ -15604,7 +15605,7 @@
         <v>21</v>
       </c>
       <c r="N241" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -15612,19 +15613,19 @@
         <v>429</v>
       </c>
       <c r="B242" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C242" t="s">
         <v>1891</v>
       </c>
-      <c r="C242" t="s">
-        <v>1892</v>
-      </c>
       <c r="D242" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G242" t="s">
         <v>422</v>
       </c>
       <c r="H242" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I242" t="s">
         <v>2</v>
@@ -15639,7 +15640,7 @@
         <v>21</v>
       </c>
       <c r="N242" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -15647,19 +15648,19 @@
         <v>430</v>
       </c>
       <c r="B243" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C243" t="s">
         <v>1893</v>
       </c>
-      <c r="C243" t="s">
-        <v>1894</v>
-      </c>
       <c r="D243" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G243" t="s">
         <v>422</v>
       </c>
       <c r="H243" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I243" t="s">
         <v>2</v>
@@ -15674,7 +15675,7 @@
         <v>21</v>
       </c>
       <c r="N243" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -15682,19 +15683,19 @@
         <v>431</v>
       </c>
       <c r="B244" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C244" t="s">
         <v>1895</v>
       </c>
-      <c r="C244" t="s">
-        <v>1896</v>
-      </c>
       <c r="D244" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G244" t="s">
         <v>422</v>
       </c>
       <c r="H244" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I244" t="s">
         <v>2</v>
@@ -15709,7 +15710,7 @@
         <v>21</v>
       </c>
       <c r="N244" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -15717,19 +15718,19 @@
         <v>432</v>
       </c>
       <c r="B245" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C245" t="s">
         <v>1897</v>
       </c>
-      <c r="C245" t="s">
-        <v>1898</v>
-      </c>
       <c r="D245" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G245" t="s">
         <v>422</v>
       </c>
       <c r="H245" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I245" t="s">
         <v>2</v>
@@ -15744,7 +15745,7 @@
         <v>21</v>
       </c>
       <c r="N245" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -15752,19 +15753,19 @@
         <v>433</v>
       </c>
       <c r="B246" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C246" t="s">
         <v>1899</v>
       </c>
-      <c r="C246" t="s">
-        <v>1900</v>
-      </c>
       <c r="D246" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G246" t="s">
         <v>422</v>
       </c>
       <c r="H246" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I246" t="s">
         <v>2</v>
@@ -15779,7 +15780,7 @@
         <v>21</v>
       </c>
       <c r="N246" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -15787,19 +15788,19 @@
         <v>434</v>
       </c>
       <c r="B247" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C247" t="s">
         <v>1901</v>
       </c>
-      <c r="C247" t="s">
-        <v>1902</v>
-      </c>
       <c r="D247" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G247" t="s">
         <v>422</v>
       </c>
       <c r="H247" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I247" t="s">
         <v>2</v>
@@ -15814,7 +15815,7 @@
         <v>21</v>
       </c>
       <c r="N247" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -15822,19 +15823,19 @@
         <v>435</v>
       </c>
       <c r="B248" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C248" t="s">
         <v>1903</v>
       </c>
-      <c r="C248" t="s">
-        <v>1904</v>
-      </c>
       <c r="D248" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G248" t="s">
         <v>422</v>
       </c>
       <c r="H248" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I248" t="s">
         <v>2</v>
@@ -15849,7 +15850,7 @@
         <v>21</v>
       </c>
       <c r="N248" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -15857,19 +15858,19 @@
         <v>436</v>
       </c>
       <c r="B249" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C249" t="s">
         <v>1905</v>
       </c>
-      <c r="C249" t="s">
-        <v>1906</v>
-      </c>
       <c r="D249" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G249" t="s">
         <v>422</v>
       </c>
       <c r="H249" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I249" t="s">
         <v>2</v>
@@ -15884,7 +15885,7 @@
         <v>21</v>
       </c>
       <c r="N249" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -15892,19 +15893,19 @@
         <v>437</v>
       </c>
       <c r="B250" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C250" t="s">
         <v>1907</v>
       </c>
-      <c r="C250" t="s">
-        <v>1908</v>
-      </c>
       <c r="D250" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G250" t="s">
         <v>422</v>
       </c>
       <c r="H250" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I250" t="s">
         <v>2</v>
@@ -15919,7 +15920,7 @@
         <v>21</v>
       </c>
       <c r="N250" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -15927,19 +15928,19 @@
         <v>438</v>
       </c>
       <c r="B251" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C251" t="s">
         <v>1909</v>
       </c>
-      <c r="C251" t="s">
-        <v>1910</v>
-      </c>
       <c r="D251" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G251" t="s">
         <v>422</v>
       </c>
       <c r="H251" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I251" t="s">
         <v>2</v>
@@ -15954,7 +15955,7 @@
         <v>21</v>
       </c>
       <c r="N251" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -15962,19 +15963,19 @@
         <v>439</v>
       </c>
       <c r="B252" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C252" t="s">
         <v>1911</v>
       </c>
-      <c r="C252" t="s">
-        <v>1912</v>
-      </c>
       <c r="D252" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G252" t="s">
         <v>422</v>
       </c>
       <c r="H252" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I252" t="s">
         <v>2</v>
@@ -15989,7 +15990,7 @@
         <v>21</v>
       </c>
       <c r="N252" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -15997,19 +15998,19 @@
         <v>440</v>
       </c>
       <c r="B253" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C253" t="s">
         <v>1913</v>
       </c>
-      <c r="C253" t="s">
-        <v>1914</v>
-      </c>
       <c r="D253" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G253" t="s">
         <v>422</v>
       </c>
       <c r="H253" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I253" t="s">
         <v>2</v>
@@ -16024,7 +16025,7 @@
         <v>21</v>
       </c>
       <c r="N253" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -16032,19 +16033,19 @@
         <v>441</v>
       </c>
       <c r="B254" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C254" t="s">
         <v>1915</v>
       </c>
-      <c r="C254" t="s">
-        <v>1916</v>
-      </c>
       <c r="D254" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G254" t="s">
         <v>422</v>
       </c>
       <c r="H254" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I254" t="s">
         <v>2</v>
@@ -16059,7 +16060,7 @@
         <v>21</v>
       </c>
       <c r="N254" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -16067,19 +16068,19 @@
         <v>442</v>
       </c>
       <c r="B255" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C255" t="s">
         <v>1917</v>
       </c>
-      <c r="C255" t="s">
-        <v>1918</v>
-      </c>
       <c r="D255" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G255" t="s">
         <v>422</v>
       </c>
       <c r="H255" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I255" t="s">
         <v>2</v>
@@ -16094,7 +16095,7 @@
         <v>21</v>
       </c>
       <c r="N255" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -16102,19 +16103,19 @@
         <v>443</v>
       </c>
       <c r="B256" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C256" t="s">
         <v>1919</v>
       </c>
-      <c r="C256" t="s">
-        <v>1920</v>
-      </c>
       <c r="D256" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G256" t="s">
         <v>422</v>
       </c>
       <c r="H256" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I256" t="s">
         <v>2</v>
@@ -16129,7 +16130,7 @@
         <v>21</v>
       </c>
       <c r="N256" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -16137,19 +16138,19 @@
         <v>444</v>
       </c>
       <c r="B257" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C257" t="s">
         <v>1921</v>
       </c>
-      <c r="C257" t="s">
-        <v>1922</v>
-      </c>
       <c r="D257" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G257" t="s">
         <v>422</v>
       </c>
       <c r="H257" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I257" t="s">
         <v>2</v>
@@ -16164,7 +16165,7 @@
         <v>21</v>
       </c>
       <c r="N257" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -16172,19 +16173,19 @@
         <v>445</v>
       </c>
       <c r="B258" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C258" t="s">
         <v>1923</v>
       </c>
-      <c r="C258" t="s">
-        <v>1924</v>
-      </c>
       <c r="D258" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G258" t="s">
         <v>422</v>
       </c>
       <c r="H258" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I258" t="s">
         <v>2</v>
@@ -16199,7 +16200,7 @@
         <v>21</v>
       </c>
       <c r="N258" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -16207,19 +16208,19 @@
         <v>446</v>
       </c>
       <c r="B259" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C259" t="s">
         <v>1925</v>
       </c>
-      <c r="C259" t="s">
-        <v>1926</v>
-      </c>
       <c r="D259" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G259" t="s">
         <v>422</v>
       </c>
       <c r="H259" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I259" t="s">
         <v>2</v>
@@ -16234,7 +16235,7 @@
         <v>21</v>
       </c>
       <c r="N259" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -16242,19 +16243,19 @@
         <v>447</v>
       </c>
       <c r="B260" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C260" t="s">
         <v>1927</v>
       </c>
-      <c r="C260" t="s">
-        <v>1928</v>
-      </c>
       <c r="D260" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G260" t="s">
         <v>422</v>
       </c>
       <c r="H260" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I260" t="s">
         <v>2</v>
@@ -16269,7 +16270,7 @@
         <v>21</v>
       </c>
       <c r="N260" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -16277,19 +16278,19 @@
         <v>448</v>
       </c>
       <c r="B261" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C261" t="s">
         <v>1929</v>
       </c>
-      <c r="C261" t="s">
-        <v>1930</v>
-      </c>
       <c r="D261" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G261" t="s">
         <v>422</v>
       </c>
       <c r="H261" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I261" t="s">
         <v>2</v>
@@ -16304,7 +16305,7 @@
         <v>21</v>
       </c>
       <c r="N261" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -16312,19 +16313,19 @@
         <v>449</v>
       </c>
       <c r="B262" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C262" t="s">
         <v>1931</v>
       </c>
-      <c r="C262" t="s">
-        <v>1932</v>
-      </c>
       <c r="D262" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G262" t="s">
         <v>422</v>
       </c>
       <c r="H262" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I262" t="s">
         <v>2</v>
@@ -16339,7 +16340,7 @@
         <v>21</v>
       </c>
       <c r="N262" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -16347,19 +16348,19 @@
         <v>450</v>
       </c>
       <c r="B263" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C263" t="s">
         <v>1933</v>
       </c>
-      <c r="C263" t="s">
-        <v>1934</v>
-      </c>
       <c r="D263" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G263" t="s">
         <v>422</v>
       </c>
       <c r="H263" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I263" t="s">
         <v>2</v>
@@ -16374,7 +16375,7 @@
         <v>21</v>
       </c>
       <c r="N263" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -16382,7 +16383,7 @@
         <v>485</v>
       </c>
       <c r="B264" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C264" t="s">
         <v>486</v>
@@ -16394,11 +16395,11 @@
         <v>487</v>
       </c>
       <c r="G264" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H264" t="s">
         <v>1795</v>
       </c>
-      <c r="H264" t="s">
-        <v>1796</v>
-      </c>
       <c r="I264" t="s">
         <v>2</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>21</v>
       </c>
       <c r="N264" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -16420,7 +16421,7 @@
         <v>488</v>
       </c>
       <c r="B265" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C265" t="s">
         <v>489</v>
@@ -16432,11 +16433,11 @@
         <v>490</v>
       </c>
       <c r="G265" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H265" t="s">
         <v>1795</v>
       </c>
-      <c r="H265" t="s">
-        <v>1796</v>
-      </c>
       <c r="I265" t="s">
         <v>2</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>21</v>
       </c>
       <c r="N265" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -16519,10 +16520,10 @@
         <v>148</v>
       </c>
       <c r="G268" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H268" t="s">
         <v>1801</v>
-      </c>
-      <c r="H268" t="s">
-        <v>1802</v>
       </c>
       <c r="I268" t="s">
         <v>2</v>
@@ -16554,10 +16555,10 @@
         <v>148</v>
       </c>
       <c r="G269" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H269" t="s">
         <v>1801</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1802</v>
       </c>
       <c r="I269" t="s">
         <v>2</v>
@@ -16586,10 +16587,10 @@
         <v>457</v>
       </c>
       <c r="G270" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H270" t="s">
         <v>1801</v>
-      </c>
-      <c r="H270" t="s">
-        <v>1802</v>
       </c>
       <c r="I270" t="s">
         <v>2</v>
@@ -16626,7 +16627,7 @@
         <v>1241</v>
       </c>
       <c r="B272" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C272" t="s">
         <v>1242</v>
@@ -16635,10 +16636,10 @@
         <v>1235</v>
       </c>
       <c r="G272" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H272" t="s">
         <v>1803</v>
-      </c>
-      <c r="H272" t="s">
-        <v>1804</v>
       </c>
       <c r="I272" t="s">
         <v>2</v>
@@ -16658,7 +16659,7 @@
         <v>1241</v>
       </c>
       <c r="B273" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C273" t="s">
         <v>1438</v>
@@ -16667,11 +16668,11 @@
         <v>1428</v>
       </c>
       <c r="G273" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H273" t="s">
         <v>1803</v>
       </c>
-      <c r="H273" t="s">
-        <v>1804</v>
-      </c>
       <c r="I273" t="s">
         <v>2</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>21</v>
       </c>
       <c r="N273" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -16693,20 +16694,20 @@
         <v>1241</v>
       </c>
       <c r="B274" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C274" t="s">
         <v>1939</v>
       </c>
-      <c r="C274" t="s">
-        <v>1940</v>
-      </c>
       <c r="D274" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G274" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H274" t="s">
         <v>1803</v>
       </c>
-      <c r="H274" t="s">
-        <v>1804</v>
-      </c>
       <c r="I274" t="s">
         <v>2</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>21</v>
       </c>
       <c r="N274" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -16728,7 +16729,7 @@
         <v>1241</v>
       </c>
       <c r="B275" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C275" t="s">
         <v>1639</v>
@@ -16737,11 +16738,11 @@
         <v>1634</v>
       </c>
       <c r="G275" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H275" t="s">
         <v>1803</v>
       </c>
-      <c r="H275" t="s">
-        <v>1804</v>
-      </c>
       <c r="I275" t="s">
         <v>2</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>21</v>
       </c>
       <c r="N275" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -16804,10 +16805,10 @@
         <v>1235</v>
       </c>
       <c r="G277" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H277" t="s">
         <v>1844</v>
-      </c>
-      <c r="H277" t="s">
-        <v>1845</v>
       </c>
       <c r="I277" t="s">
         <v>2</v>
@@ -16830,16 +16831,16 @@
         <v>1244</v>
       </c>
       <c r="C278" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D278" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G278" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H278" t="s">
         <v>1844</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1845</v>
       </c>
       <c r="I278" t="s">
         <v>2</v>
@@ -16854,7 +16855,7 @@
         <v>65</v>
       </c>
       <c r="N278" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -16865,16 +16866,16 @@
         <v>1244</v>
       </c>
       <c r="C279" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D279" t="s">
         <v>1634</v>
       </c>
       <c r="G279" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H279" t="s">
         <v>1844</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1845</v>
       </c>
       <c r="I279" t="s">
         <v>2</v>
@@ -16889,7 +16890,7 @@
         <v>65</v>
       </c>
       <c r="N279" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -16906,10 +16907,10 @@
         <v>1634</v>
       </c>
       <c r="G280" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H280" t="s">
         <v>1799</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1800</v>
       </c>
       <c r="I280" t="s">
         <v>2</v>
@@ -16932,10 +16933,10 @@
         <v>1547</v>
       </c>
       <c r="C281" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D281" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G281" t="s">
         <v>1548</v>
@@ -17550,10 +17551,10 @@
         <v>1551</v>
       </c>
       <c r="C301" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D301" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E301" t="s">
         <v>1552</v>
@@ -17585,10 +17586,10 @@
         <v>1554</v>
       </c>
       <c r="C302" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D302" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E302" t="s">
         <v>1555</v>
@@ -17634,13 +17635,13 @@
         <v>1558</v>
       </c>
       <c r="B304" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C304" t="s">
         <v>1946</v>
       </c>
-      <c r="C304" t="s">
-        <v>1947</v>
-      </c>
       <c r="D304" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G304" t="s">
         <v>1248</v>
@@ -17661,7 +17662,7 @@
         <v>21</v>
       </c>
       <c r="N304" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -17669,13 +17670,13 @@
         <v>1559</v>
       </c>
       <c r="B305" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C305" t="s">
         <v>1948</v>
       </c>
-      <c r="C305" t="s">
-        <v>1949</v>
-      </c>
       <c r="D305" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G305" t="s">
         <v>1248</v>
@@ -17696,7 +17697,7 @@
         <v>21</v>
       </c>
       <c r="N305" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -17704,13 +17705,13 @@
         <v>1560</v>
       </c>
       <c r="B306" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C306" t="s">
         <v>1950</v>
       </c>
-      <c r="C306" t="s">
-        <v>1951</v>
-      </c>
       <c r="D306" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G306" t="s">
         <v>1248</v>
@@ -17731,7 +17732,7 @@
         <v>21</v>
       </c>
       <c r="N306" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -17739,13 +17740,13 @@
         <v>1561</v>
       </c>
       <c r="B307" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C307" t="s">
         <v>1952</v>
       </c>
-      <c r="C307" t="s">
-        <v>1953</v>
-      </c>
       <c r="D307" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G307" t="s">
         <v>1248</v>
@@ -17766,7 +17767,7 @@
         <v>21</v>
       </c>
       <c r="N307" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -17774,13 +17775,13 @@
         <v>1562</v>
       </c>
       <c r="B308" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C308" t="s">
         <v>1954</v>
       </c>
-      <c r="C308" t="s">
-        <v>1955</v>
-      </c>
       <c r="D308" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G308" t="s">
         <v>1248</v>
@@ -17801,7 +17802,7 @@
         <v>21</v>
       </c>
       <c r="N308" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -17809,13 +17810,13 @@
         <v>1563</v>
       </c>
       <c r="B309" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C309" t="s">
         <v>1956</v>
       </c>
-      <c r="C309" t="s">
-        <v>1957</v>
-      </c>
       <c r="D309" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G309" t="s">
         <v>1248</v>
@@ -17836,7 +17837,7 @@
         <v>21</v>
       </c>
       <c r="N309" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -17844,13 +17845,13 @@
         <v>1564</v>
       </c>
       <c r="B310" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C310" t="s">
         <v>1958</v>
       </c>
-      <c r="C310" t="s">
-        <v>1959</v>
-      </c>
       <c r="D310" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G310" t="s">
         <v>1248</v>
@@ -17871,7 +17872,7 @@
         <v>21</v>
       </c>
       <c r="N310" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -17879,13 +17880,13 @@
         <v>1565</v>
       </c>
       <c r="B311" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C311" t="s">
         <v>1960</v>
       </c>
-      <c r="C311" t="s">
-        <v>1961</v>
-      </c>
       <c r="D311" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G311" t="s">
         <v>1248</v>
@@ -17906,7 +17907,7 @@
         <v>21</v>
       </c>
       <c r="N311" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -17914,13 +17915,13 @@
         <v>1566</v>
       </c>
       <c r="B312" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C312" t="s">
         <v>1962</v>
       </c>
-      <c r="C312" t="s">
-        <v>1963</v>
-      </c>
       <c r="D312" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G312" t="s">
         <v>1248</v>
@@ -17941,7 +17942,7 @@
         <v>21</v>
       </c>
       <c r="N312" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -17949,7 +17950,7 @@
         <v>1246</v>
       </c>
       <c r="B313" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C313" t="s">
         <v>1247</v>
@@ -17981,13 +17982,13 @@
         <v>1246</v>
       </c>
       <c r="B314" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C314" t="s">
         <v>1964</v>
       </c>
-      <c r="C314" t="s">
-        <v>1965</v>
-      </c>
       <c r="D314" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G314" t="s">
         <v>1248</v>
@@ -18008,7 +18009,7 @@
         <v>21</v>
       </c>
       <c r="N314" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -18033,13 +18034,13 @@
         <v>1567</v>
       </c>
       <c r="B316" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C316" t="s">
         <v>1966</v>
       </c>
-      <c r="C316" t="s">
-        <v>1967</v>
-      </c>
       <c r="D316" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G316" t="s">
         <v>1568</v>
@@ -18060,7 +18061,7 @@
         <v>21</v>
       </c>
       <c r="N316" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -18068,13 +18069,13 @@
         <v>1570</v>
       </c>
       <c r="B317" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C317" t="s">
         <v>1968</v>
       </c>
-      <c r="C317" t="s">
-        <v>1969</v>
-      </c>
       <c r="D317" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G317" t="s">
         <v>1568</v>
@@ -18095,7 +18096,7 @@
         <v>21</v>
       </c>
       <c r="N317" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -18103,13 +18104,13 @@
         <v>1571</v>
       </c>
       <c r="B318" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C318" t="s">
         <v>1970</v>
       </c>
-      <c r="C318" t="s">
-        <v>1971</v>
-      </c>
       <c r="D318" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G318" t="s">
         <v>1568</v>
@@ -18130,7 +18131,7 @@
         <v>21</v>
       </c>
       <c r="N318" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -18138,13 +18139,13 @@
         <v>1572</v>
       </c>
       <c r="B319" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C319" t="s">
         <v>1972</v>
       </c>
-      <c r="C319" t="s">
-        <v>1973</v>
-      </c>
       <c r="D319" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G319" t="s">
         <v>1568</v>
@@ -18165,7 +18166,7 @@
         <v>21</v>
       </c>
       <c r="N319" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -18173,13 +18174,13 @@
         <v>1573</v>
       </c>
       <c r="B320" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C320" t="s">
         <v>1974</v>
       </c>
-      <c r="C320" t="s">
-        <v>1975</v>
-      </c>
       <c r="D320" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G320" t="s">
         <v>1568</v>
@@ -18200,7 +18201,7 @@
         <v>21</v>
       </c>
       <c r="N320" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -18208,13 +18209,13 @@
         <v>1574</v>
       </c>
       <c r="B321" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C321" t="s">
         <v>1976</v>
       </c>
-      <c r="C321" t="s">
-        <v>1977</v>
-      </c>
       <c r="D321" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G321" t="s">
         <v>1568</v>
@@ -18235,7 +18236,7 @@
         <v>21</v>
       </c>
       <c r="N321" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -18243,13 +18244,13 @@
         <v>1575</v>
       </c>
       <c r="B322" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C322" t="s">
         <v>1978</v>
       </c>
-      <c r="C322" t="s">
-        <v>1979</v>
-      </c>
       <c r="D322" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G322" t="s">
         <v>1568</v>
@@ -18270,7 +18271,7 @@
         <v>21</v>
       </c>
       <c r="N322" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -18281,10 +18282,10 @@
         <v>1577</v>
       </c>
       <c r="C323" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D323" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G323" t="s">
         <v>1548</v>
@@ -18313,10 +18314,10 @@
         <v>1579</v>
       </c>
       <c r="C324" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D324" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G324" t="s">
         <v>1548</v>
@@ -18362,10 +18363,10 @@
         <v>1581</v>
       </c>
       <c r="C326" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D326" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G326" t="s">
         <v>1582</v>
@@ -18394,10 +18395,10 @@
         <v>1585</v>
       </c>
       <c r="C327" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D327" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G327" t="s">
         <v>1582</v>
@@ -18426,10 +18427,10 @@
         <v>1587</v>
       </c>
       <c r="C328" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D328" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G328" t="s">
         <v>1582</v>
@@ -18458,10 +18459,10 @@
         <v>1589</v>
       </c>
       <c r="C329" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D329" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G329" t="s">
         <v>1582</v>
@@ -18490,10 +18491,10 @@
         <v>1591</v>
       </c>
       <c r="C330" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D330" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G330" t="s">
         <v>1582</v>
@@ -18536,13 +18537,13 @@
         <v>1592</v>
       </c>
       <c r="B332" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C332" t="s">
         <v>1987</v>
       </c>
-      <c r="C332" t="s">
-        <v>1988</v>
-      </c>
       <c r="D332" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G332" t="s">
         <v>1593</v>
@@ -18563,7 +18564,7 @@
         <v>21</v>
       </c>
       <c r="N332" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -18571,13 +18572,13 @@
         <v>1595</v>
       </c>
       <c r="B333" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C333" t="s">
         <v>1989</v>
       </c>
-      <c r="C333" t="s">
-        <v>1990</v>
-      </c>
       <c r="D333" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G333" t="s">
         <v>1593</v>
@@ -18598,7 +18599,7 @@
         <v>21</v>
       </c>
       <c r="N333" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -18606,13 +18607,13 @@
         <v>1596</v>
       </c>
       <c r="B334" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C334" t="s">
         <v>1991</v>
       </c>
-      <c r="C334" t="s">
-        <v>1992</v>
-      </c>
       <c r="D334" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G334" t="s">
         <v>1593</v>
@@ -18633,7 +18634,7 @@
         <v>21</v>
       </c>
       <c r="N334" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -18641,13 +18642,13 @@
         <v>1597</v>
       </c>
       <c r="B335" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C335" t="s">
         <v>1993</v>
       </c>
-      <c r="C335" t="s">
-        <v>1994</v>
-      </c>
       <c r="D335" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G335" t="s">
         <v>1593</v>
@@ -18668,7 +18669,7 @@
         <v>21</v>
       </c>
       <c r="N335" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -18696,10 +18697,10 @@
         <v>1599</v>
       </c>
       <c r="C337" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D337" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G337" t="s">
         <v>1459</v>
@@ -18728,10 +18729,10 @@
         <v>1601</v>
       </c>
       <c r="C338" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D338" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G338" t="s">
         <v>1459</v>
@@ -18760,10 +18761,10 @@
         <v>1603</v>
       </c>
       <c r="C339" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D339" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G339" t="s">
         <v>1459</v>
@@ -18792,10 +18793,10 @@
         <v>1605</v>
       </c>
       <c r="C340" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D340" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G340" t="s">
         <v>1459</v>
@@ -18824,10 +18825,10 @@
         <v>1607</v>
       </c>
       <c r="C341" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D341" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G341" t="s">
         <v>1459</v>
@@ -18856,10 +18857,10 @@
         <v>1609</v>
       </c>
       <c r="C342" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D342" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G342" t="s">
         <v>1459</v>
@@ -18888,10 +18889,10 @@
         <v>1611</v>
       </c>
       <c r="C343" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D343" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G343" t="s">
         <v>1459</v>
@@ -18920,10 +18921,10 @@
         <v>1613</v>
       </c>
       <c r="C344" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D344" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G344" t="s">
         <v>1459</v>
@@ -18952,10 +18953,10 @@
         <v>1615</v>
       </c>
       <c r="C345" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D345" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G345" t="s">
         <v>1459</v>
@@ -18984,10 +18985,10 @@
         <v>1617</v>
       </c>
       <c r="C346" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D346" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G346" t="s">
         <v>1459</v>
@@ -19016,10 +19017,10 @@
         <v>1619</v>
       </c>
       <c r="C347" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D347" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G347" t="s">
         <v>1459</v>
@@ -19129,10 +19130,10 @@
         <v>1251</v>
       </c>
       <c r="C351" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D351" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G351" t="s">
         <v>1253</v>
@@ -19161,10 +19162,10 @@
         <v>1621</v>
       </c>
       <c r="C352" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D352" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G352" t="s">
         <v>1253</v>
@@ -19190,13 +19191,13 @@
         <v>1622</v>
       </c>
       <c r="B353" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C353" t="s">
         <v>2008</v>
       </c>
-      <c r="C353" t="s">
-        <v>2009</v>
-      </c>
       <c r="D353" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G353" t="s">
         <v>1253</v>
@@ -19217,7 +19218,7 @@
         <v>21</v>
       </c>
       <c r="N353" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -19292,10 +19293,10 @@
         <v>1256</v>
       </c>
       <c r="C356" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D356" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G356" t="s">
         <v>1253</v>
@@ -19324,10 +19325,10 @@
         <v>1624</v>
       </c>
       <c r="C357" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D357" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G357" t="s">
         <v>1253</v>
@@ -19420,10 +19421,10 @@
         <v>1259</v>
       </c>
       <c r="C360" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D360" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G360" t="s">
         <v>1253</v>
@@ -19483,13 +19484,13 @@
         <v>1625</v>
       </c>
       <c r="B363" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C363" t="s">
         <v>2014</v>
       </c>
-      <c r="C363" t="s">
-        <v>2015</v>
-      </c>
       <c r="D363" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G363" t="s">
         <v>1626</v>
@@ -19510,7 +19511,7 @@
         <v>21</v>
       </c>
       <c r="N363" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -19518,13 +19519,13 @@
         <v>1628</v>
       </c>
       <c r="B364" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C364" t="s">
         <v>2016</v>
       </c>
-      <c r="C364" t="s">
-        <v>2017</v>
-      </c>
       <c r="D364" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G364" t="s">
         <v>1626</v>
@@ -19545,7 +19546,7 @@
         <v>21</v>
       </c>
       <c r="N364" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -19570,13 +19571,13 @@
         <v>1629</v>
       </c>
       <c r="B366" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C366" t="s">
         <v>2018</v>
       </c>
-      <c r="C366" t="s">
-        <v>2019</v>
-      </c>
       <c r="D366" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G366" t="s">
         <v>1630</v>
@@ -19597,7 +19598,7 @@
         <v>21</v>
       </c>
       <c r="N366" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -19605,13 +19606,13 @@
         <v>1632</v>
       </c>
       <c r="B367" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C367" t="s">
         <v>2020</v>
       </c>
-      <c r="C367" t="s">
-        <v>2021</v>
-      </c>
       <c r="D367" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G367" t="s">
         <v>1630</v>
@@ -19632,7 +19633,7 @@
         <v>21</v>
       </c>
       <c r="N367" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -19643,10 +19644,10 @@
         <v>1446</v>
       </c>
       <c r="G368" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H368" t="s">
         <v>1795</v>
-      </c>
-      <c r="H368" t="s">
-        <v>1796</v>
       </c>
       <c r="I368" t="s">
         <v>10</v>
@@ -19666,7 +19667,7 @@
         <v>1428</v>
       </c>
       <c r="F369" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G369" t="s">
         <v>1445</v>
@@ -19701,7 +19702,7 @@
         <v>1428</v>
       </c>
       <c r="F370" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G370" t="s">
         <v>1445</v>
@@ -19736,7 +19737,7 @@
         <v>1428</v>
       </c>
       <c r="F371" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G371" t="s">
         <v>1445</v>
@@ -19771,7 +19772,7 @@
         <v>1428</v>
       </c>
       <c r="F372" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G372" t="s">
         <v>1445</v>
@@ -19806,10 +19807,10 @@
         <v>1235</v>
       </c>
       <c r="G373" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H373" t="s">
         <v>1795</v>
-      </c>
-      <c r="H373" t="s">
-        <v>1796</v>
       </c>
       <c r="I373" t="s">
         <v>2</v>
@@ -19838,7 +19839,7 @@
         <v>1428</v>
       </c>
       <c r="F374" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G374" t="s">
         <v>1459</v>
@@ -19873,7 +19874,7 @@
         <v>1428</v>
       </c>
       <c r="F375" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G375" t="s">
         <v>1459</v>
@@ -19899,7 +19900,7 @@
         <v>1467</v>
       </c>
       <c r="B376" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G376" t="s">
         <v>1556</v>
@@ -19928,7 +19929,7 @@
         <v>1467</v>
       </c>
       <c r="H377" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I377" t="s">
         <v>460</v>
@@ -19960,7 +19961,7 @@
         <v>1467</v>
       </c>
       <c r="H378" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I378" t="s">
         <v>460</v>
@@ -19992,7 +19993,7 @@
         <v>1467</v>
       </c>
       <c r="H379" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I379" t="s">
         <v>460</v>
@@ -20024,7 +20025,7 @@
         <v>1467</v>
       </c>
       <c r="H380" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I380" t="s">
         <v>460</v>
@@ -20056,7 +20057,7 @@
         <v>1467</v>
       </c>
       <c r="H381" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I381" t="s">
         <v>460</v>
@@ -20088,7 +20089,7 @@
         <v>1467</v>
       </c>
       <c r="H382" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I382" t="s">
         <v>460</v>
@@ -20120,7 +20121,7 @@
         <v>1467</v>
       </c>
       <c r="H383" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I383" t="s">
         <v>460</v>
@@ -20152,7 +20153,7 @@
         <v>1467</v>
       </c>
       <c r="H384" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I384" t="s">
         <v>460</v>
@@ -20184,7 +20185,7 @@
         <v>1467</v>
       </c>
       <c r="H385" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I385" t="s">
         <v>460</v>
@@ -20216,7 +20217,7 @@
         <v>1467</v>
       </c>
       <c r="H386" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I386" t="s">
         <v>460</v>
@@ -20248,7 +20249,7 @@
         <v>1467</v>
       </c>
       <c r="H387" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I387" t="s">
         <v>460</v>
@@ -20280,7 +20281,7 @@
         <v>1467</v>
       </c>
       <c r="H388" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I388" t="s">
         <v>460</v>
@@ -20312,7 +20313,7 @@
         <v>1467</v>
       </c>
       <c r="H389" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I389" t="s">
         <v>460</v>
@@ -20344,7 +20345,7 @@
         <v>1467</v>
       </c>
       <c r="H390" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I390" t="s">
         <v>460</v>
@@ -20376,7 +20377,7 @@
         <v>1467</v>
       </c>
       <c r="H391" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="I391" t="s">
         <v>460</v>
@@ -20405,10 +20406,10 @@
         <v>1428</v>
       </c>
       <c r="G392" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H392" t="s">
         <v>1795</v>
-      </c>
-      <c r="H392" t="s">
-        <v>1796</v>
       </c>
       <c r="I392" t="s">
         <v>2</v>
@@ -20440,7 +20441,7 @@
         <v>1510</v>
       </c>
       <c r="F393" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G393" t="s">
         <v>372</v>
@@ -20478,13 +20479,13 @@
         <v>1514</v>
       </c>
       <c r="F394" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G394" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H394" t="s">
         <v>1795</v>
-      </c>
-      <c r="H394" t="s">
-        <v>1796</v>
       </c>
       <c r="I394" t="s">
         <v>2</v>
@@ -20504,7 +20505,7 @@
         <v>1515</v>
       </c>
       <c r="B395" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C395" t="s">
         <v>1516</v>
@@ -20516,14 +20517,14 @@
         <v>1517</v>
       </c>
       <c r="F395" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G395" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H395" t="s">
         <v>1795</v>
       </c>
-      <c r="H395" t="s">
-        <v>1796</v>
-      </c>
       <c r="I395" t="s">
         <v>2</v>
       </c>
@@ -20537,7 +20538,7 @@
         <v>21</v>
       </c>
       <c r="N395" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -20557,7 +20558,7 @@
         <v>1521</v>
       </c>
       <c r="F396" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G396" t="s">
         <v>372</v>
@@ -20609,13 +20610,13 @@
         <v>1428</v>
       </c>
       <c r="F398" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="G398" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H398" t="s">
         <v>1795</v>
-      </c>
-      <c r="H398" t="s">
-        <v>1796</v>
       </c>
       <c r="I398" t="s">
         <v>2</v>
@@ -21015,7 +21016,7 @@
         <v>1116</v>
       </c>
       <c r="B409" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C409" t="s">
         <v>1117</v>
@@ -21048,7 +21049,7 @@
         <v>21</v>
       </c>
       <c r="N409" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -21056,7 +21057,7 @@
         <v>1122</v>
       </c>
       <c r="B410" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C410" t="s">
         <v>1123</v>
@@ -21089,7 +21090,7 @@
         <v>21</v>
       </c>
       <c r="N410" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -21097,7 +21098,7 @@
         <v>1126</v>
       </c>
       <c r="B411" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C411" t="s">
         <v>1127</v>
@@ -21130,7 +21131,7 @@
         <v>21</v>
       </c>
       <c r="N411" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -21763,7 +21764,7 @@
         <v>158</v>
       </c>
       <c r="B429" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C429" t="s">
         <v>159</v>
@@ -21790,7 +21791,7 @@
         <v>21</v>
       </c>
       <c r="N429" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -22215,10 +22216,10 @@
         <v>1743</v>
       </c>
       <c r="G451" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H451" t="s">
         <v>2037</v>
-      </c>
-      <c r="H451" t="s">
-        <v>2038</v>
       </c>
       <c r="I451" t="s">
         <v>10</v>
@@ -22249,16 +22250,16 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B453" t="s">
         <v>2039</v>
       </c>
-      <c r="B453" t="s">
-        <v>2040</v>
-      </c>
       <c r="G453" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H453" t="s">
         <v>2037</v>
-      </c>
-      <c r="H453" t="s">
-        <v>2038</v>
       </c>
       <c r="K453" t="s">
         <v>1711</v>
@@ -22368,7 +22369,7 @@
         <v>1282</v>
       </c>
       <c r="C457" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D457" t="s">
         <v>1235</v>
@@ -22400,10 +22401,10 @@
         <v>1289</v>
       </c>
       <c r="G458" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H458" t="s">
         <v>1795</v>
-      </c>
-      <c r="H458" t="s">
-        <v>1796</v>
       </c>
       <c r="I458" t="s">
         <v>1704</v>
@@ -22417,10 +22418,10 @@
         <v>1293</v>
       </c>
       <c r="G459" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H459" t="s">
         <v>1795</v>
-      </c>
-      <c r="H459" t="s">
-        <v>1796</v>
       </c>
       <c r="I459" t="s">
         <v>1704</v>
@@ -22431,13 +22432,13 @@
         <v>1296</v>
       </c>
       <c r="B460" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G460" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H460" t="s">
         <v>1795</v>
-      </c>
-      <c r="H460" t="s">
-        <v>1796</v>
       </c>
       <c r="I460" t="s">
         <v>10</v>
@@ -22524,7 +22525,7 @@
         <v>1296</v>
       </c>
       <c r="H463" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I463" t="s">
         <v>2</v>
@@ -22539,7 +22540,7 @@
         <v>21</v>
       </c>
       <c r="N463" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -22623,7 +22624,7 @@
         <v>1296</v>
       </c>
       <c r="H466" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I466" t="s">
         <v>2</v>
@@ -22638,7 +22639,7 @@
         <v>21</v>
       </c>
       <c r="N466" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -22722,7 +22723,7 @@
         <v>1296</v>
       </c>
       <c r="H469" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I469" t="s">
         <v>2</v>
@@ -22737,7 +22738,7 @@
         <v>21</v>
       </c>
       <c r="N469" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="470" spans="1:14">
@@ -22821,7 +22822,7 @@
         <v>1296</v>
       </c>
       <c r="H472" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I472" t="s">
         <v>2</v>
@@ -22836,7 +22837,7 @@
         <v>21</v>
       </c>
       <c r="N472" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -22920,7 +22921,7 @@
         <v>1296</v>
       </c>
       <c r="H475" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I475" t="s">
         <v>2</v>
@@ -22935,7 +22936,7 @@
         <v>21</v>
       </c>
       <c r="N475" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -23019,7 +23020,7 @@
         <v>1296</v>
       </c>
       <c r="H478" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I478" t="s">
         <v>2</v>
@@ -23034,7 +23035,7 @@
         <v>21</v>
       </c>
       <c r="N478" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -23118,7 +23119,7 @@
         <v>1296</v>
       </c>
       <c r="H481" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I481" t="s">
         <v>2</v>
@@ -23133,7 +23134,7 @@
         <v>21</v>
       </c>
       <c r="N481" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -23217,7 +23218,7 @@
         <v>1296</v>
       </c>
       <c r="H484" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I484" t="s">
         <v>2</v>
@@ -23232,7 +23233,7 @@
         <v>21</v>
       </c>
       <c r="N484" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -23316,7 +23317,7 @@
         <v>1296</v>
       </c>
       <c r="H487" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I487" t="s">
         <v>2</v>
@@ -23331,7 +23332,7 @@
         <v>21</v>
       </c>
       <c r="N487" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="488" spans="1:14">
@@ -23415,7 +23416,7 @@
         <v>1296</v>
       </c>
       <c r="H490" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I490" t="s">
         <v>2</v>
@@ -23430,7 +23431,7 @@
         <v>21</v>
       </c>
       <c r="N490" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="491" spans="1:14">
@@ -23514,7 +23515,7 @@
         <v>1296</v>
       </c>
       <c r="H493" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I493" t="s">
         <v>2</v>
@@ -23529,7 +23530,7 @@
         <v>21</v>
       </c>
       <c r="N493" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="494" spans="1:14">
@@ -23613,7 +23614,7 @@
         <v>1296</v>
       </c>
       <c r="H496" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I496" t="s">
         <v>2</v>
@@ -23628,7 +23629,7 @@
         <v>21</v>
       </c>
       <c r="N496" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -23712,7 +23713,7 @@
         <v>1296</v>
       </c>
       <c r="H499" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I499" t="s">
         <v>2</v>
@@ -23727,7 +23728,7 @@
         <v>21</v>
       </c>
       <c r="N499" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -23811,7 +23812,7 @@
         <v>1296</v>
       </c>
       <c r="H502" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I502" t="s">
         <v>2</v>
@@ -23826,7 +23827,7 @@
         <v>21</v>
       </c>
       <c r="N502" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -23910,7 +23911,7 @@
         <v>1296</v>
       </c>
       <c r="H505" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I505" t="s">
         <v>2</v>
@@ -23925,7 +23926,7 @@
         <v>21</v>
       </c>
       <c r="N505" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -24009,7 +24010,7 @@
         <v>1296</v>
       </c>
       <c r="H508" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I508" t="s">
         <v>2</v>
@@ -24024,7 +24025,7 @@
         <v>21</v>
       </c>
       <c r="N508" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="509" spans="1:14">
@@ -24108,7 +24109,7 @@
         <v>1296</v>
       </c>
       <c r="H511" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I511" t="s">
         <v>2</v>
@@ -24123,7 +24124,7 @@
         <v>21</v>
       </c>
       <c r="N511" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="512" spans="1:14">
@@ -24140,10 +24141,10 @@
         <v>1235</v>
       </c>
       <c r="G512" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H512" t="s">
         <v>1795</v>
-      </c>
-      <c r="H512" t="s">
-        <v>1796</v>
       </c>
       <c r="I512" t="s">
         <v>2</v>
@@ -24172,10 +24173,10 @@
         <v>1235</v>
       </c>
       <c r="G513" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H513" t="s">
         <v>1795</v>
-      </c>
-      <c r="H513" t="s">
-        <v>1796</v>
       </c>
       <c r="I513" t="s">
         <v>2</v>
@@ -24207,7 +24208,7 @@
         <v>1296</v>
       </c>
       <c r="H514" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="I514" t="s">
         <v>2</v>
@@ -24222,7 +24223,7 @@
         <v>21</v>
       </c>
       <c r="N514" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="515" spans="1:14">
@@ -24250,7 +24251,7 @@
         <v>1228</v>
       </c>
       <c r="C516" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D516" t="s">
         <v>1229</v>
@@ -24839,10 +24840,10 @@
         <v>1063</v>
       </c>
       <c r="G533" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H533" t="s">
         <v>1795</v>
-      </c>
-      <c r="H533" t="s">
-        <v>1796</v>
       </c>
       <c r="I533" t="s">
         <v>2</v>
@@ -24865,10 +24866,10 @@
         <v>1120</v>
       </c>
       <c r="G534" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H534" t="s">
         <v>1795</v>
-      </c>
-      <c r="H534" t="s">
-        <v>1796</v>
       </c>
       <c r="I534" t="s">
         <v>10</v>
@@ -24876,16 +24877,16 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B535" t="s">
         <v>1807</v>
       </c>
-      <c r="B535" t="s">
+      <c r="G535" t="s">
         <v>1808</v>
       </c>
-      <c r="G535" t="s">
+      <c r="H535" t="s">
         <v>1809</v>
-      </c>
-      <c r="H535" t="s">
-        <v>1810</v>
       </c>
       <c r="I535" t="s">
         <v>10</v>
@@ -24893,16 +24894,16 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B536" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G536" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H536" t="s">
         <v>1795</v>
-      </c>
-      <c r="H536" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="537" spans="1:14">
@@ -24919,10 +24920,10 @@
         <v>951</v>
       </c>
       <c r="G537" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H537" t="s">
         <v>1803</v>
-      </c>
-      <c r="H537" t="s">
-        <v>1804</v>
       </c>
       <c r="I537" t="s">
         <v>2</v>
@@ -24942,7 +24943,7 @@
         <v>214</v>
       </c>
       <c r="B538" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C538" t="s">
         <v>960</v>
@@ -24951,10 +24952,10 @@
         <v>951</v>
       </c>
       <c r="G538" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H538" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I538" t="s">
         <v>2</v>
@@ -25012,10 +25013,10 @@
         <v>992</v>
       </c>
       <c r="G540" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H540" t="s">
         <v>1795</v>
-      </c>
-      <c r="H540" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -25023,7 +25024,7 @@
         <v>350</v>
       </c>
       <c r="B541" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C541" t="s">
         <v>351</v>
@@ -25032,11 +25033,11 @@
         <v>325</v>
       </c>
       <c r="G541" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H541" t="s">
         <v>2047</v>
       </c>
-      <c r="H541" t="s">
-        <v>2048</v>
-      </c>
       <c r="I541" t="s">
         <v>2</v>
       </c>
@@ -25050,15 +25051,15 @@
         <v>21</v>
       </c>
       <c r="N541" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="542" spans="1:14">
       <c r="A542" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B542" t="s">
         <v>2047</v>
-      </c>
-      <c r="B542" t="s">
-        <v>2048</v>
       </c>
       <c r="G542" t="s">
         <v>1283</v>
@@ -25136,10 +25137,10 @@
         <v>336</v>
       </c>
       <c r="G545" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H545" t="s">
         <v>1795</v>
-      </c>
-      <c r="H545" t="s">
-        <v>1796</v>
       </c>
       <c r="I545" t="s">
         <v>2</v>
@@ -25171,10 +25172,10 @@
         <v>336</v>
       </c>
       <c r="G546" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H546" t="s">
         <v>1795</v>
-      </c>
-      <c r="H546" t="s">
-        <v>1796</v>
       </c>
       <c r="I546" t="s">
         <v>2</v>
@@ -25197,10 +25198,10 @@
         <v>157</v>
       </c>
       <c r="G547" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H547" t="s">
         <v>1795</v>
-      </c>
-      <c r="H547" t="s">
-        <v>1796</v>
       </c>
       <c r="I547" t="s">
         <v>10</v>
@@ -25214,10 +25215,10 @@
         <v>157</v>
       </c>
       <c r="G548" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H548" t="s">
         <v>1795</v>
-      </c>
-      <c r="H548" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -25277,10 +25278,10 @@
         <v>118</v>
       </c>
       <c r="C551" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D551" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G551" t="s">
         <v>96</v>
@@ -25373,10 +25374,10 @@
         <v>121</v>
       </c>
       <c r="C554" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D554" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G554" t="s">
         <v>96</v>
@@ -25434,7 +25435,7 @@
         <v>172</v>
       </c>
       <c r="B556" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C556" t="s">
         <v>173</v>
@@ -25461,7 +25462,7 @@
         <v>21</v>
       </c>
       <c r="N556" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -25472,10 +25473,10 @@
         <v>452</v>
       </c>
       <c r="C557" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D557" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E557" t="s">
         <v>453</v>
@@ -25501,10 +25502,10 @@
     </row>
     <row r="558" spans="1:14">
       <c r="A558" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B558" t="s">
         <v>1818</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1819</v>
       </c>
       <c r="G558" t="s">
         <v>64</v>
@@ -25555,7 +25556,7 @@
         <v>1231</v>
       </c>
       <c r="C561" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D561" t="s">
         <v>1229</v>
@@ -25610,10 +25611,10 @@
         <v>136</v>
       </c>
       <c r="G563" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H563" t="s">
         <v>2054</v>
-      </c>
-      <c r="H563" t="s">
-        <v>2055</v>
       </c>
       <c r="I563" t="s">
         <v>2</v>
@@ -25696,10 +25697,10 @@
     </row>
     <row r="567" spans="1:13">
       <c r="A567" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B567" t="s">
         <v>1815</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1816</v>
       </c>
       <c r="G567" t="s">
         <v>1703</v>
@@ -25713,10 +25714,10 @@
         <v>364</v>
       </c>
       <c r="G568" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H568" t="s">
         <v>1795</v>
-      </c>
-      <c r="H568" t="s">
-        <v>1796</v>
       </c>
       <c r="I568" t="s">
         <v>10</v>
@@ -25730,7 +25731,7 @@
         <v>1683</v>
       </c>
       <c r="C569" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D569" t="s">
         <v>1661</v>
@@ -25776,18 +25777,18 @@
         <v>1688</v>
       </c>
       <c r="G571" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H571" t="s">
         <v>1795</v>
-      </c>
-      <c r="H571" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="572" spans="1:13">
       <c r="A572" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B572" t="s">
         <v>2057</v>
-      </c>
-      <c r="B572" t="s">
-        <v>2058</v>
       </c>
       <c r="G572" t="s">
         <v>25</v>
@@ -25813,10 +25814,10 @@
         <v>136</v>
       </c>
       <c r="G573" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H573" t="s">
         <v>2054</v>
-      </c>
-      <c r="H573" t="s">
-        <v>2055</v>
       </c>
       <c r="I573" t="s">
         <v>2</v>
@@ -25833,10 +25834,10 @@
     </row>
     <row r="574" spans="1:13">
       <c r="A574" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B574" t="s">
         <v>2054</v>
-      </c>
-      <c r="B574" t="s">
-        <v>2055</v>
       </c>
       <c r="G574" t="s">
         <v>156</v>
@@ -25853,10 +25854,10 @@
         <v>26</v>
       </c>
       <c r="G575" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H575" t="s">
         <v>1815</v>
-      </c>
-      <c r="H575" t="s">
-        <v>1816</v>
       </c>
       <c r="I575" t="s">
         <v>10</v>
@@ -25995,10 +25996,10 @@
     </row>
     <row r="580" spans="1:14">
       <c r="A580" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B580" t="s">
         <v>2037</v>
-      </c>
-      <c r="B580" t="s">
-        <v>2038</v>
       </c>
       <c r="G580" t="s">
         <v>1709</v>
@@ -26015,10 +26016,10 @@
     </row>
     <row r="581" spans="1:14">
       <c r="A581" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B581" t="s">
         <v>2059</v>
-      </c>
-      <c r="B581" t="s">
-        <v>2060</v>
       </c>
       <c r="C581" t="s">
         <v>143</v>
@@ -26036,7 +26037,7 @@
         <v>2</v>
       </c>
       <c r="J581" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K581" t="s">
         <v>85</v>
@@ -26048,7 +26049,7 @@
         <v>21</v>
       </c>
       <c r="N581" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="582" spans="1:14">
@@ -27537,7 +27538,7 @@
         <v>1233</v>
       </c>
       <c r="C628" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D628" t="s">
         <v>1229</v>
@@ -27612,10 +27613,10 @@
         <v>457</v>
       </c>
       <c r="G630" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H630" t="s">
         <v>1803</v>
-      </c>
-      <c r="H630" t="s">
-        <v>1804</v>
       </c>
       <c r="I630" t="s">
         <v>2</v>
@@ -27632,10 +27633,10 @@
     </row>
     <row r="631" spans="1:14">
       <c r="A631" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B631" t="s">
         <v>1846</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1847</v>
       </c>
       <c r="G631" t="s">
         <v>1703</v>
@@ -27646,7 +27647,7 @@
     </row>
     <row r="632" spans="1:14">
       <c r="A632" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B632" t="s">
         <v>260</v>
@@ -27712,7 +27713,7 @@
         <v>217</v>
       </c>
       <c r="B635" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C635" t="s">
         <v>111</v>
@@ -27739,7 +27740,7 @@
         <v>21</v>
       </c>
       <c r="N635" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -27747,7 +27748,7 @@
         <v>217</v>
       </c>
       <c r="B636" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C636" t="s">
         <v>144</v>
@@ -27774,7 +27775,7 @@
         <v>21</v>
       </c>
       <c r="N636" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -27782,7 +27783,7 @@
         <v>217</v>
       </c>
       <c r="B637" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C637" t="s">
         <v>327</v>
@@ -27812,7 +27813,7 @@
         <v>21</v>
       </c>
       <c r="N637" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="638" spans="1:14">
@@ -27820,13 +27821,13 @@
         <v>217</v>
       </c>
       <c r="B638" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C638" t="s">
         <v>2064</v>
       </c>
-      <c r="C638" t="s">
-        <v>2065</v>
-      </c>
       <c r="D638" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G638" t="s">
         <v>991</v>
@@ -27847,7 +27848,7 @@
         <v>21</v>
       </c>
       <c r="N638" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -27855,7 +27856,7 @@
         <v>217</v>
       </c>
       <c r="B639" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C639" t="s">
         <v>480</v>
@@ -27876,7 +27877,7 @@
         <v>2</v>
       </c>
       <c r="J639" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K639" t="s">
         <v>85</v>
@@ -27893,7 +27894,7 @@
         <v>217</v>
       </c>
       <c r="B640" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C640" t="s">
         <v>669</v>
@@ -27928,7 +27929,7 @@
         <v>217</v>
       </c>
       <c r="B641" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C641" t="s">
         <v>739</v>
@@ -27958,7 +27959,7 @@
         <v>21</v>
       </c>
       <c r="N641" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="642" spans="1:14">
@@ -27966,7 +27967,7 @@
         <v>217</v>
       </c>
       <c r="B642" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C642" t="s">
         <v>734</v>
@@ -27993,7 +27994,7 @@
         <v>21</v>
       </c>
       <c r="N642" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -28001,7 +28002,7 @@
         <v>217</v>
       </c>
       <c r="B643" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C643" t="s">
         <v>701</v>
@@ -28031,7 +28032,7 @@
         <v>21</v>
       </c>
       <c r="N643" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -28039,7 +28040,7 @@
         <v>217</v>
       </c>
       <c r="B644" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C644" t="s">
         <v>956</v>
@@ -28066,7 +28067,7 @@
         <v>21</v>
       </c>
       <c r="N644" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="645" spans="1:14">
@@ -28074,7 +28075,7 @@
         <v>217</v>
       </c>
       <c r="B645" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C645" t="s">
         <v>970</v>
@@ -28104,7 +28105,7 @@
         <v>21</v>
       </c>
       <c r="N645" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="646" spans="1:14">
@@ -28112,7 +28113,7 @@
         <v>217</v>
       </c>
       <c r="B646" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C646" t="s">
         <v>984</v>
@@ -28144,7 +28145,7 @@
         <v>217</v>
       </c>
       <c r="B647" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C647" t="s">
         <v>1071</v>
@@ -28171,7 +28172,7 @@
         <v>21</v>
       </c>
       <c r="N647" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="648" spans="1:14">
@@ -28179,7 +28180,7 @@
         <v>217</v>
       </c>
       <c r="B648" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C648" t="s">
         <v>1219</v>
@@ -28206,7 +28207,7 @@
         <v>21</v>
       </c>
       <c r="N648" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -28214,10 +28215,10 @@
         <v>217</v>
       </c>
       <c r="B649" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C649" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D649" t="s">
         <v>1229</v>
@@ -28246,7 +28247,7 @@
         <v>217</v>
       </c>
       <c r="B650" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C650" t="s">
         <v>1236</v>
@@ -28273,7 +28274,7 @@
         <v>21</v>
       </c>
       <c r="N650" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -28281,7 +28282,7 @@
         <v>217</v>
       </c>
       <c r="B651" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C651" t="s">
         <v>1437</v>
@@ -28308,7 +28309,7 @@
         <v>21</v>
       </c>
       <c r="N651" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -28316,7 +28317,7 @@
         <v>217</v>
       </c>
       <c r="B652" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C652" t="s">
         <v>1535</v>
@@ -28343,7 +28344,7 @@
         <v>21</v>
       </c>
       <c r="N652" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -28351,13 +28352,13 @@
         <v>217</v>
       </c>
       <c r="B653" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C653" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D653" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G653" t="s">
         <v>991</v>
@@ -28378,7 +28379,7 @@
         <v>21</v>
       </c>
       <c r="N653" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -28386,7 +28387,7 @@
         <v>217</v>
       </c>
       <c r="B654" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C654" t="s">
         <v>1638</v>
@@ -28413,7 +28414,7 @@
         <v>21</v>
       </c>
       <c r="N654" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -28421,7 +28422,7 @@
         <v>217</v>
       </c>
       <c r="B655" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C655" t="s">
         <v>1689</v>
@@ -28448,7 +28449,7 @@
         <v>21</v>
       </c>
       <c r="N655" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -28576,10 +28577,10 @@
         <v>1065</v>
       </c>
       <c r="G659" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H659" t="s">
         <v>1818</v>
-      </c>
-      <c r="H659" t="s">
-        <v>1819</v>
       </c>
       <c r="I659" t="s">
         <v>2</v>
@@ -28608,10 +28609,10 @@
         <v>1634</v>
       </c>
       <c r="G660" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H660" t="s">
         <v>1818</v>
-      </c>
-      <c r="H660" t="s">
-        <v>1819</v>
       </c>
       <c r="I660" t="s">
         <v>2</v>
@@ -28643,10 +28644,10 @@
         <v>673</v>
       </c>
       <c r="G661" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H661" t="s">
         <v>1844</v>
-      </c>
-      <c r="H661" t="s">
-        <v>1845</v>
       </c>
       <c r="I661" t="s">
         <v>2</v>
@@ -28678,10 +28679,10 @@
         <v>673</v>
       </c>
       <c r="G662" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H662" t="s">
         <v>1844</v>
-      </c>
-      <c r="H662" t="s">
-        <v>1845</v>
       </c>
       <c r="I662" t="s">
         <v>2</v>
@@ -28812,7 +28813,7 @@
         <v>55</v>
       </c>
       <c r="B666" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C666" t="s">
         <v>741</v>
@@ -28821,11 +28822,11 @@
         <v>682</v>
       </c>
       <c r="G666" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H666" t="s">
         <v>2057</v>
       </c>
-      <c r="H666" t="s">
-        <v>2058</v>
-      </c>
       <c r="I666" t="s">
         <v>2</v>
       </c>
@@ -28839,7 +28840,7 @@
         <v>21</v>
       </c>
       <c r="N666" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -28847,7 +28848,7 @@
         <v>55</v>
       </c>
       <c r="B667" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C667" t="s">
         <v>794</v>
@@ -28856,11 +28857,11 @@
         <v>788</v>
       </c>
       <c r="G667" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H667" t="s">
         <v>2057</v>
       </c>
-      <c r="H667" t="s">
-        <v>2058</v>
-      </c>
       <c r="I667" t="s">
         <v>2</v>
       </c>
@@ -28874,7 +28875,7 @@
         <v>21</v>
       </c>
       <c r="N667" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -28882,7 +28883,7 @@
         <v>55</v>
       </c>
       <c r="B668" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C668" t="s">
         <v>813</v>
@@ -28891,11 +28892,11 @@
         <v>807</v>
       </c>
       <c r="G668" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H668" t="s">
         <v>2057</v>
       </c>
-      <c r="H668" t="s">
-        <v>2058</v>
-      </c>
       <c r="I668" t="s">
         <v>2</v>
       </c>
@@ -28909,7 +28910,7 @@
         <v>21</v>
       </c>
       <c r="N668" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -28917,7 +28918,7 @@
         <v>55</v>
       </c>
       <c r="B669" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C669" t="s">
         <v>985</v>
@@ -28926,10 +28927,10 @@
         <v>977</v>
       </c>
       <c r="G669" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H669" t="s">
         <v>2057</v>
-      </c>
-      <c r="H669" t="s">
-        <v>2058</v>
       </c>
       <c r="I669" t="s">
         <v>2</v>
@@ -29090,7 +29091,7 @@
         <v>58</v>
       </c>
       <c r="B674" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C674" t="s">
         <v>742</v>
@@ -29099,11 +29100,11 @@
         <v>682</v>
       </c>
       <c r="G674" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H674" t="s">
         <v>2057</v>
       </c>
-      <c r="H674" t="s">
-        <v>2058</v>
-      </c>
       <c r="I674" t="s">
         <v>2</v>
       </c>
@@ -29117,7 +29118,7 @@
         <v>21</v>
       </c>
       <c r="N674" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="675" spans="1:14">
@@ -29125,7 +29126,7 @@
         <v>58</v>
       </c>
       <c r="B675" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C675" t="s">
         <v>795</v>
@@ -29134,11 +29135,11 @@
         <v>788</v>
       </c>
       <c r="G675" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H675" t="s">
         <v>2057</v>
       </c>
-      <c r="H675" t="s">
-        <v>2058</v>
-      </c>
       <c r="I675" t="s">
         <v>2</v>
       </c>
@@ -29152,7 +29153,7 @@
         <v>21</v>
       </c>
       <c r="N675" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -29160,7 +29161,7 @@
         <v>58</v>
       </c>
       <c r="B676" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C676" t="s">
         <v>814</v>
@@ -29169,11 +29170,11 @@
         <v>807</v>
       </c>
       <c r="G676" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H676" t="s">
         <v>2057</v>
       </c>
-      <c r="H676" t="s">
-        <v>2058</v>
-      </c>
       <c r="I676" t="s">
         <v>2</v>
       </c>
@@ -29187,7 +29188,7 @@
         <v>21</v>
       </c>
       <c r="N676" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="677" spans="1:14">
@@ -29195,7 +29196,7 @@
         <v>58</v>
       </c>
       <c r="B677" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C677" t="s">
         <v>986</v>
@@ -29204,10 +29205,10 @@
         <v>977</v>
       </c>
       <c r="G677" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H677" t="s">
         <v>2057</v>
-      </c>
-      <c r="H677" t="s">
-        <v>2058</v>
       </c>
       <c r="I677" t="s">
         <v>2</v>
@@ -29377,10 +29378,10 @@
         <v>231</v>
       </c>
       <c r="G682" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H682" t="s">
         <v>1846</v>
-      </c>
-      <c r="H682" t="s">
-        <v>1847</v>
       </c>
       <c r="I682" t="s">
         <v>2</v>
@@ -29409,10 +29410,10 @@
         <v>682</v>
       </c>
       <c r="G683" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H683" t="s">
         <v>1846</v>
-      </c>
-      <c r="H683" t="s">
-        <v>1847</v>
       </c>
       <c r="I683" t="s">
         <v>2</v>
@@ -29441,10 +29442,10 @@
         <v>788</v>
       </c>
       <c r="G684" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H684" t="s">
         <v>1846</v>
-      </c>
-      <c r="H684" t="s">
-        <v>1847</v>
       </c>
       <c r="I684" t="s">
         <v>2</v>
@@ -29473,10 +29474,10 @@
         <v>807</v>
       </c>
       <c r="G685" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H685" t="s">
         <v>1846</v>
-      </c>
-      <c r="H685" t="s">
-        <v>1847</v>
       </c>
       <c r="I685" t="s">
         <v>2</v>
@@ -29776,10 +29777,10 @@
     </row>
     <row r="694" spans="1:15">
       <c r="A694" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B694" t="s">
         <v>2073</v>
-      </c>
-      <c r="B694" t="s">
-        <v>2074</v>
       </c>
       <c r="G694" t="s">
         <v>104</v>
@@ -29807,10 +29808,10 @@
     </row>
     <row r="696" spans="1:15">
       <c r="A696" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B696" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G696" t="s">
         <v>104</v>
@@ -29873,10 +29874,10 @@
         <v>345</v>
       </c>
       <c r="G699" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H699" t="s">
         <v>1844</v>
-      </c>
-      <c r="H699" t="s">
-        <v>1845</v>
       </c>
       <c r="I699" t="s">
         <v>2</v>
@@ -29947,10 +29948,10 @@
         <v>977</v>
       </c>
       <c r="G701" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H701" t="s">
         <v>1793</v>
-      </c>
-      <c r="H701" t="s">
-        <v>1794</v>
       </c>
       <c r="I701" t="s">
         <v>2</v>
@@ -30233,7 +30234,7 @@
       </c>
       <c r="N708" s="1"/>
       <c r="O708" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="709" spans="1:15">
@@ -30528,10 +30529,10 @@
         <v>84</v>
       </c>
       <c r="G716" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H716" t="s">
         <v>1818</v>
-      </c>
-      <c r="H716" t="s">
-        <v>1819</v>
       </c>
       <c r="I716" t="s">
         <v>2</v>
@@ -30560,10 +30561,10 @@
         <v>136</v>
       </c>
       <c r="G717" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H717" t="s">
         <v>1818</v>
-      </c>
-      <c r="H717" t="s">
-        <v>1819</v>
       </c>
       <c r="I717" t="s">
         <v>2</v>
@@ -30592,10 +30593,10 @@
         <v>231</v>
       </c>
       <c r="G718" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H718" t="s">
         <v>1818</v>
-      </c>
-      <c r="H718" t="s">
-        <v>1819</v>
       </c>
       <c r="I718" t="s">
         <v>2</v>
@@ -30624,10 +30625,10 @@
         <v>325</v>
       </c>
       <c r="G719" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H719" t="s">
         <v>1818</v>
-      </c>
-      <c r="H719" t="s">
-        <v>1819</v>
       </c>
       <c r="I719" t="s">
         <v>2</v>
@@ -30650,16 +30651,16 @@
         <v>62</v>
       </c>
       <c r="C720" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D720" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G720" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H720" t="s">
         <v>1818</v>
-      </c>
-      <c r="H720" t="s">
-        <v>1819</v>
       </c>
       <c r="I720" t="s">
         <v>2</v>
@@ -30688,10 +30689,10 @@
         <v>457</v>
       </c>
       <c r="G721" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H721" t="s">
         <v>1818</v>
-      </c>
-      <c r="H721" t="s">
-        <v>1819</v>
       </c>
       <c r="I721" t="s">
         <v>2</v>
@@ -30720,10 +30721,10 @@
         <v>682</v>
       </c>
       <c r="G722" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H722" t="s">
         <v>1818</v>
-      </c>
-      <c r="H722" t="s">
-        <v>1819</v>
       </c>
       <c r="I722" t="s">
         <v>2</v>
@@ -30752,10 +30753,10 @@
         <v>788</v>
       </c>
       <c r="G723" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H723" t="s">
         <v>1818</v>
-      </c>
-      <c r="H723" t="s">
-        <v>1819</v>
       </c>
       <c r="I723" t="s">
         <v>2</v>
@@ -30784,10 +30785,10 @@
         <v>807</v>
       </c>
       <c r="G724" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H724" t="s">
         <v>1818</v>
-      </c>
-      <c r="H724" t="s">
-        <v>1819</v>
       </c>
       <c r="I724" t="s">
         <v>2</v>
@@ -30816,10 +30817,10 @@
         <v>951</v>
       </c>
       <c r="G725" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H725" t="s">
         <v>1818</v>
-      </c>
-      <c r="H725" t="s">
-        <v>1819</v>
       </c>
       <c r="I725" t="s">
         <v>2</v>
@@ -30848,10 +30849,10 @@
         <v>967</v>
       </c>
       <c r="G726" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H726" t="s">
         <v>1818</v>
-      </c>
-      <c r="H726" t="s">
-        <v>1819</v>
       </c>
       <c r="I726" t="s">
         <v>2</v>
@@ -30880,10 +30881,10 @@
         <v>977</v>
       </c>
       <c r="G727" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H727" t="s">
         <v>1818</v>
-      </c>
-      <c r="H727" t="s">
-        <v>1819</v>
       </c>
       <c r="I727" t="s">
         <v>2</v>
@@ -30912,10 +30913,10 @@
         <v>1065</v>
       </c>
       <c r="G728" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H728" t="s">
         <v>1818</v>
-      </c>
-      <c r="H728" t="s">
-        <v>1819</v>
       </c>
       <c r="I728" t="s">
         <v>2</v>
@@ -30944,10 +30945,10 @@
         <v>1210</v>
       </c>
       <c r="G729" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H729" t="s">
         <v>1818</v>
-      </c>
-      <c r="H729" t="s">
-        <v>1819</v>
       </c>
       <c r="I729" t="s">
         <v>2</v>
@@ -30970,16 +30971,16 @@
         <v>62</v>
       </c>
       <c r="C730" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D730" t="s">
         <v>1229</v>
       </c>
       <c r="G730" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H730" t="s">
         <v>1818</v>
-      </c>
-      <c r="H730" t="s">
-        <v>1819</v>
       </c>
       <c r="I730" t="s">
         <v>2</v>
@@ -31008,10 +31009,10 @@
         <v>1235</v>
       </c>
       <c r="G731" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H731" t="s">
         <v>1818</v>
-      </c>
-      <c r="H731" t="s">
-        <v>1819</v>
       </c>
       <c r="I731" t="s">
         <v>2</v>
@@ -31040,10 +31041,10 @@
         <v>1428</v>
       </c>
       <c r="G732" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H732" t="s">
         <v>1818</v>
-      </c>
-      <c r="H732" t="s">
-        <v>1819</v>
       </c>
       <c r="I732" t="s">
         <v>2</v>
@@ -31072,10 +31073,10 @@
         <v>1532</v>
       </c>
       <c r="G733" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H733" t="s">
         <v>1818</v>
-      </c>
-      <c r="H733" t="s">
-        <v>1819</v>
       </c>
       <c r="I733" t="s">
         <v>2</v>
@@ -31098,16 +31099,16 @@
         <v>62</v>
       </c>
       <c r="C734" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D734" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G734" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H734" t="s">
         <v>1818</v>
-      </c>
-      <c r="H734" t="s">
-        <v>1819</v>
       </c>
       <c r="I734" t="s">
         <v>2</v>
@@ -31136,10 +31137,10 @@
         <v>1634</v>
       </c>
       <c r="G735" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H735" t="s">
         <v>1818</v>
-      </c>
-      <c r="H735" t="s">
-        <v>1819</v>
       </c>
       <c r="I735" t="s">
         <v>2</v>
@@ -31168,10 +31169,10 @@
         <v>1661</v>
       </c>
       <c r="G736" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H736" t="s">
         <v>1818</v>
-      </c>
-      <c r="H736" t="s">
-        <v>1819</v>
       </c>
       <c r="I736" t="s">
         <v>2</v>
@@ -31461,10 +31462,10 @@
     </row>
     <row r="745" spans="1:15" s="9" customFormat="1">
       <c r="A745" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B745" t="s">
         <v>1844</v>
-      </c>
-      <c r="B745" t="s">
-        <v>1845</v>
       </c>
       <c r="C745"/>
       <c r="D745"/>
@@ -31523,10 +31524,10 @@
       <c r="E747"/>
       <c r="F747"/>
       <c r="G747" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H747" t="s">
         <v>1795</v>
-      </c>
-      <c r="H747" t="s">
-        <v>1796</v>
       </c>
       <c r="I747" t="s">
         <v>10</v>
@@ -31573,10 +31574,10 @@
         <v>244</v>
       </c>
       <c r="G749" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H749" t="s">
         <v>1795</v>
-      </c>
-      <c r="H749" t="s">
-        <v>1796</v>
       </c>
       <c r="I749" t="s">
         <v>10</v>
@@ -31790,10 +31791,10 @@
         <v>125</v>
       </c>
       <c r="C756" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D756" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E756" t="s">
         <v>127</v>
@@ -31962,7 +31963,7 @@
         <v>125</v>
       </c>
       <c r="C761" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D761" t="s">
         <v>1229</v>
@@ -32096,10 +32097,10 @@
         <v>125</v>
       </c>
       <c r="C765" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D765" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E765" t="s">
         <v>127</v>
@@ -32414,10 +32415,10 @@
     </row>
     <row r="774" spans="1:15" s="3" customFormat="1">
       <c r="A774" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B774" t="s">
         <v>1809</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1810</v>
       </c>
       <c r="C774"/>
       <c r="D774"/>
@@ -33153,10 +33154,10 @@
         <v>74</v>
       </c>
       <c r="G796" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H796" t="s">
         <v>1795</v>
-      </c>
-      <c r="H796" t="s">
-        <v>1796</v>
       </c>
       <c r="I796" t="s">
         <v>2</v>
@@ -33188,10 +33189,10 @@
         <v>74</v>
       </c>
       <c r="G797" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H797" t="s">
         <v>1795</v>
-      </c>
-      <c r="H797" t="s">
-        <v>1796</v>
       </c>
       <c r="I797" t="s">
         <v>2</v>
@@ -33223,10 +33224,10 @@
         <v>74</v>
       </c>
       <c r="G798" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H798" t="s">
         <v>1795</v>
-      </c>
-      <c r="H798" t="s">
-        <v>1796</v>
       </c>
       <c r="I798" t="s">
         <v>2</v>
@@ -33259,10 +33260,10 @@
       </c>
       <c r="F799"/>
       <c r="G799" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H799" t="s">
         <v>1795</v>
-      </c>
-      <c r="H799" t="s">
-        <v>1796</v>
       </c>
       <c r="I799" t="s">
         <v>2</v>
@@ -33288,20 +33289,20 @@
         <v>72</v>
       </c>
       <c r="C800" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D800" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E800" t="s">
         <v>74</v>
       </c>
       <c r="F800"/>
       <c r="G800" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H800" t="s">
         <v>1795</v>
-      </c>
-      <c r="H800" t="s">
-        <v>1796</v>
       </c>
       <c r="I800" t="s">
         <v>2</v>
@@ -33337,10 +33338,10 @@
       </c>
       <c r="F801"/>
       <c r="G801" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H801" t="s">
         <v>1795</v>
-      </c>
-      <c r="H801" t="s">
-        <v>1796</v>
       </c>
       <c r="I801" t="s">
         <v>2</v>
@@ -33376,10 +33377,10 @@
       </c>
       <c r="F802"/>
       <c r="G802" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H802" t="s">
         <v>1795</v>
-      </c>
-      <c r="H802" t="s">
-        <v>1796</v>
       </c>
       <c r="I802" t="s">
         <v>2</v>
@@ -33415,10 +33416,10 @@
       </c>
       <c r="F803"/>
       <c r="G803" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H803" t="s">
         <v>1795</v>
-      </c>
-      <c r="H803" t="s">
-        <v>1796</v>
       </c>
       <c r="I803" t="s">
         <v>2</v>
@@ -33454,10 +33455,10 @@
       </c>
       <c r="F804"/>
       <c r="G804" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H804" t="s">
         <v>1795</v>
-      </c>
-      <c r="H804" t="s">
-        <v>1796</v>
       </c>
       <c r="I804" t="s">
         <v>2</v>
@@ -33493,10 +33494,10 @@
       </c>
       <c r="F805"/>
       <c r="G805" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H805" t="s">
         <v>1795</v>
-      </c>
-      <c r="H805" t="s">
-        <v>1796</v>
       </c>
       <c r="I805" t="s">
         <v>2</v>
@@ -33532,10 +33533,10 @@
       </c>
       <c r="F806"/>
       <c r="G806" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H806" t="s">
         <v>1795</v>
-      </c>
-      <c r="H806" t="s">
-        <v>1796</v>
       </c>
       <c r="I806" t="s">
         <v>2</v>
@@ -33569,10 +33570,10 @@
       <c r="E807"/>
       <c r="F807"/>
       <c r="G807" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H807" t="s">
         <v>1795</v>
-      </c>
-      <c r="H807" t="s">
-        <v>1796</v>
       </c>
       <c r="I807" t="s">
         <v>2</v>
@@ -33608,10 +33609,10 @@
       </c>
       <c r="F808"/>
       <c r="G808" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H808" t="s">
         <v>1795</v>
-      </c>
-      <c r="H808" t="s">
-        <v>1796</v>
       </c>
       <c r="I808" t="s">
         <v>2</v>
@@ -33647,10 +33648,10 @@
       </c>
       <c r="F809"/>
       <c r="G809" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H809" t="s">
         <v>1795</v>
-      </c>
-      <c r="H809" t="s">
-        <v>1796</v>
       </c>
       <c r="I809" t="s">
         <v>2</v>
@@ -33676,7 +33677,7 @@
         <v>72</v>
       </c>
       <c r="C810" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D810" t="s">
         <v>1229</v>
@@ -33686,10 +33687,10 @@
       </c>
       <c r="F810"/>
       <c r="G810" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H810" t="s">
         <v>1795</v>
-      </c>
-      <c r="H810" t="s">
-        <v>1796</v>
       </c>
       <c r="I810" t="s">
         <v>2</v>
@@ -33723,10 +33724,10 @@
       <c r="E811"/>
       <c r="F811"/>
       <c r="G811" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H811" t="s">
         <v>1795</v>
-      </c>
-      <c r="H811" t="s">
-        <v>1796</v>
       </c>
       <c r="I811" t="s">
         <v>2</v>
@@ -33762,10 +33763,10 @@
       </c>
       <c r="F812"/>
       <c r="G812" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H812" t="s">
         <v>1795</v>
-      </c>
-      <c r="H812" t="s">
-        <v>1796</v>
       </c>
       <c r="I812" t="s">
         <v>2</v>
@@ -33801,10 +33802,10 @@
       </c>
       <c r="F813"/>
       <c r="G813" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H813" t="s">
         <v>1795</v>
-      </c>
-      <c r="H813" t="s">
-        <v>1796</v>
       </c>
       <c r="I813" t="s">
         <v>2</v>
@@ -33830,20 +33831,20 @@
         <v>72</v>
       </c>
       <c r="C814" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D814" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E814" t="s">
         <v>74</v>
       </c>
       <c r="F814"/>
       <c r="G814" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H814" t="s">
         <v>1795</v>
-      </c>
-      <c r="H814" t="s">
-        <v>1796</v>
       </c>
       <c r="I814" t="s">
         <v>2</v>
@@ -33879,10 +33880,10 @@
       </c>
       <c r="F815"/>
       <c r="G815" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H815" t="s">
         <v>1795</v>
-      </c>
-      <c r="H815" t="s">
-        <v>1796</v>
       </c>
       <c r="I815" t="s">
         <v>2</v>
@@ -33916,10 +33917,10 @@
       <c r="E816"/>
       <c r="F816"/>
       <c r="G816" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H816" t="s">
         <v>1795</v>
-      </c>
-      <c r="H816" t="s">
-        <v>1796</v>
       </c>
       <c r="I816" t="s">
         <v>2</v>
@@ -34327,10 +34328,10 @@
       </c>
       <c r="F827"/>
       <c r="G827" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H827" t="s">
         <v>1795</v>
-      </c>
-      <c r="H827" t="s">
-        <v>1796</v>
       </c>
       <c r="I827" t="s">
         <v>2</v>
@@ -34366,10 +34367,10 @@
       </c>
       <c r="F828"/>
       <c r="G828" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H828" t="s">
         <v>1795</v>
-      </c>
-      <c r="H828" t="s">
-        <v>1796</v>
       </c>
       <c r="I828" t="s">
         <v>2</v>
@@ -34405,10 +34406,10 @@
       </c>
       <c r="F829"/>
       <c r="G829" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H829" t="s">
         <v>1795</v>
-      </c>
-      <c r="H829" t="s">
-        <v>1796</v>
       </c>
       <c r="I829" t="s">
         <v>2</v>
@@ -34444,10 +34445,10 @@
       </c>
       <c r="F830"/>
       <c r="G830" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H830" t="s">
         <v>1795</v>
-      </c>
-      <c r="H830" t="s">
-        <v>1796</v>
       </c>
       <c r="I830" t="s">
         <v>2</v>
@@ -34473,20 +34474,20 @@
         <v>131</v>
       </c>
       <c r="C831" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D831" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E831" t="s">
         <v>133</v>
       </c>
       <c r="F831"/>
       <c r="G831" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H831" t="s">
         <v>1795</v>
-      </c>
-      <c r="H831" t="s">
-        <v>1796</v>
       </c>
       <c r="I831" t="s">
         <v>2</v>
@@ -34522,10 +34523,10 @@
       </c>
       <c r="F832"/>
       <c r="G832" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H832" t="s">
         <v>1795</v>
-      </c>
-      <c r="H832" t="s">
-        <v>1796</v>
       </c>
       <c r="I832" t="s">
         <v>2</v>
@@ -34561,10 +34562,10 @@
       </c>
       <c r="F833"/>
       <c r="G833" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H833" t="s">
         <v>1795</v>
-      </c>
-      <c r="H833" t="s">
-        <v>1796</v>
       </c>
       <c r="I833" t="s">
         <v>2</v>
@@ -34600,10 +34601,10 @@
       </c>
       <c r="F834"/>
       <c r="G834" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H834" t="s">
         <v>1795</v>
-      </c>
-      <c r="H834" t="s">
-        <v>1796</v>
       </c>
       <c r="I834" t="s">
         <v>2</v>
@@ -34639,10 +34640,10 @@
       </c>
       <c r="F835"/>
       <c r="G835" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H835" t="s">
         <v>1795</v>
-      </c>
-      <c r="H835" t="s">
-        <v>1796</v>
       </c>
       <c r="I835" t="s">
         <v>2</v>
@@ -34677,10 +34678,10 @@
       </c>
       <c r="F836"/>
       <c r="G836" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H836" t="s">
         <v>1795</v>
-      </c>
-      <c r="H836" t="s">
-        <v>1796</v>
       </c>
       <c r="I836" t="s">
         <v>2</v>
@@ -34716,10 +34717,10 @@
       </c>
       <c r="F837"/>
       <c r="G837" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H837" t="s">
         <v>1795</v>
-      </c>
-      <c r="H837" t="s">
-        <v>1796</v>
       </c>
       <c r="I837" t="s">
         <v>2</v>
@@ -34753,10 +34754,10 @@
       <c r="E838"/>
       <c r="F838"/>
       <c r="G838" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H838" t="s">
         <v>1795</v>
-      </c>
-      <c r="H838" t="s">
-        <v>1796</v>
       </c>
       <c r="I838" t="s">
         <v>2</v>
@@ -34792,10 +34793,10 @@
       </c>
       <c r="F839"/>
       <c r="G839" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H839" t="s">
         <v>1795</v>
-      </c>
-      <c r="H839" t="s">
-        <v>1796</v>
       </c>
       <c r="I839" t="s">
         <v>2</v>
@@ -34831,10 +34832,10 @@
       </c>
       <c r="F840"/>
       <c r="G840" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H840" t="s">
         <v>1795</v>
-      </c>
-      <c r="H840" t="s">
-        <v>1796</v>
       </c>
       <c r="I840" t="s">
         <v>2</v>
@@ -34860,7 +34861,7 @@
         <v>131</v>
       </c>
       <c r="C841" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D841" t="s">
         <v>1229</v>
@@ -34870,10 +34871,10 @@
       </c>
       <c r="F841"/>
       <c r="G841" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H841" t="s">
         <v>1795</v>
-      </c>
-      <c r="H841" t="s">
-        <v>1796</v>
       </c>
       <c r="I841" t="s">
         <v>2</v>
@@ -34907,10 +34908,10 @@
       <c r="E842"/>
       <c r="F842"/>
       <c r="G842" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H842" t="s">
         <v>1795</v>
-      </c>
-      <c r="H842" t="s">
-        <v>1796</v>
       </c>
       <c r="I842" t="s">
         <v>2</v>
@@ -34946,10 +34947,10 @@
       </c>
       <c r="F843"/>
       <c r="G843" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H843" t="s">
         <v>1795</v>
-      </c>
-      <c r="H843" t="s">
-        <v>1796</v>
       </c>
       <c r="I843" t="s">
         <v>2</v>
@@ -34985,10 +34986,10 @@
       </c>
       <c r="F844"/>
       <c r="G844" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H844" t="s">
         <v>1795</v>
-      </c>
-      <c r="H844" t="s">
-        <v>1796</v>
       </c>
       <c r="I844" t="s">
         <v>2</v>
@@ -35014,20 +35015,20 @@
         <v>131</v>
       </c>
       <c r="C845" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D845" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E845" t="s">
         <v>133</v>
       </c>
       <c r="F845"/>
       <c r="G845" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H845" t="s">
         <v>1795</v>
-      </c>
-      <c r="H845" t="s">
-        <v>1796</v>
       </c>
       <c r="I845" t="s">
         <v>2</v>
@@ -35063,10 +35064,10 @@
       </c>
       <c r="F846"/>
       <c r="G846" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H846" t="s">
         <v>1795</v>
-      </c>
-      <c r="H846" t="s">
-        <v>1796</v>
       </c>
       <c r="I846" t="s">
         <v>2</v>
@@ -35100,10 +35101,10 @@
       <c r="E847"/>
       <c r="F847"/>
       <c r="G847" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H847" t="s">
         <v>1795</v>
-      </c>
-      <c r="H847" t="s">
-        <v>1796</v>
       </c>
       <c r="I847" t="s">
         <v>2</v>
@@ -35373,10 +35374,10 @@
       </c>
       <c r="F854"/>
       <c r="G854" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H854" t="s">
         <v>1795</v>
-      </c>
-      <c r="H854" t="s">
-        <v>1796</v>
       </c>
       <c r="I854" t="s">
         <v>2</v>
@@ -35412,10 +35413,10 @@
       </c>
       <c r="F855"/>
       <c r="G855" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H855" t="s">
         <v>1795</v>
-      </c>
-      <c r="H855" t="s">
-        <v>1796</v>
       </c>
       <c r="I855" t="s">
         <v>2</v>
@@ -35451,10 +35452,10 @@
       </c>
       <c r="F856"/>
       <c r="G856" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H856" t="s">
         <v>1795</v>
-      </c>
-      <c r="H856" t="s">
-        <v>1796</v>
       </c>
       <c r="I856" t="s">
         <v>2</v>
@@ -35490,10 +35491,10 @@
       </c>
       <c r="F857"/>
       <c r="G857" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H857" t="s">
         <v>1795</v>
-      </c>
-      <c r="H857" t="s">
-        <v>1796</v>
       </c>
       <c r="I857" t="s">
         <v>2</v>
@@ -35519,20 +35520,20 @@
         <v>80</v>
       </c>
       <c r="C858" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D858" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E858" t="s">
         <v>82</v>
       </c>
       <c r="F858"/>
       <c r="G858" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H858" t="s">
         <v>1795</v>
-      </c>
-      <c r="H858" t="s">
-        <v>1796</v>
       </c>
       <c r="I858" t="s">
         <v>2</v>
@@ -35568,10 +35569,10 @@
       </c>
       <c r="F859"/>
       <c r="G859" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H859" t="s">
         <v>1795</v>
-      </c>
-      <c r="H859" t="s">
-        <v>1796</v>
       </c>
       <c r="I859" t="s">
         <v>2</v>
@@ -35607,10 +35608,10 @@
       </c>
       <c r="F860"/>
       <c r="G860" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H860" t="s">
         <v>1795</v>
-      </c>
-      <c r="H860" t="s">
-        <v>1796</v>
       </c>
       <c r="I860" t="s">
         <v>2</v>
@@ -35646,10 +35647,10 @@
       </c>
       <c r="F861"/>
       <c r="G861" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H861" t="s">
         <v>1795</v>
-      </c>
-      <c r="H861" t="s">
-        <v>1796</v>
       </c>
       <c r="I861" t="s">
         <v>2</v>
@@ -35685,10 +35686,10 @@
       </c>
       <c r="F862"/>
       <c r="G862" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H862" t="s">
         <v>1795</v>
-      </c>
-      <c r="H862" t="s">
-        <v>1796</v>
       </c>
       <c r="I862" t="s">
         <v>2</v>
@@ -35724,10 +35725,10 @@
       </c>
       <c r="F863"/>
       <c r="G863" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H863" t="s">
         <v>1795</v>
-      </c>
-      <c r="H863" t="s">
-        <v>1796</v>
       </c>
       <c r="I863" t="s">
         <v>2</v>
@@ -35763,10 +35764,10 @@
       </c>
       <c r="F864"/>
       <c r="G864" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H864" t="s">
         <v>1795</v>
-      </c>
-      <c r="H864" t="s">
-        <v>1796</v>
       </c>
       <c r="I864" t="s">
         <v>2</v>
@@ -35800,10 +35801,10 @@
       <c r="E865"/>
       <c r="F865"/>
       <c r="G865" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H865" t="s">
         <v>1795</v>
-      </c>
-      <c r="H865" t="s">
-        <v>1796</v>
       </c>
       <c r="I865" t="s">
         <v>2</v>
@@ -35839,10 +35840,10 @@
       </c>
       <c r="F866"/>
       <c r="G866" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H866" t="s">
         <v>1795</v>
-      </c>
-      <c r="H866" t="s">
-        <v>1796</v>
       </c>
       <c r="I866" t="s">
         <v>2</v>
@@ -35878,10 +35879,10 @@
       </c>
       <c r="F867"/>
       <c r="G867" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H867" t="s">
         <v>1795</v>
-      </c>
-      <c r="H867" t="s">
-        <v>1796</v>
       </c>
       <c r="I867" t="s">
         <v>2</v>
@@ -35915,10 +35916,10 @@
       <c r="E868"/>
       <c r="F868"/>
       <c r="G868" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H868" t="s">
         <v>1795</v>
-      </c>
-      <c r="H868" t="s">
-        <v>1796</v>
       </c>
       <c r="I868" t="s">
         <v>2</v>
@@ -35954,10 +35955,10 @@
       </c>
       <c r="F869"/>
       <c r="G869" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H869" t="s">
         <v>1795</v>
-      </c>
-      <c r="H869" t="s">
-        <v>1796</v>
       </c>
       <c r="I869" t="s">
         <v>2</v>
@@ -35993,10 +35994,10 @@
       </c>
       <c r="F870"/>
       <c r="G870" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H870" t="s">
         <v>1795</v>
-      </c>
-      <c r="H870" t="s">
-        <v>1796</v>
       </c>
       <c r="I870" t="s">
         <v>2</v>
@@ -36022,20 +36023,20 @@
         <v>80</v>
       </c>
       <c r="C871" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D871" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E871" t="s">
         <v>82</v>
       </c>
       <c r="F871"/>
       <c r="G871" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H871" t="s">
         <v>1795</v>
-      </c>
-      <c r="H871" t="s">
-        <v>1796</v>
       </c>
       <c r="I871" t="s">
         <v>2</v>
@@ -36071,10 +36072,10 @@
       </c>
       <c r="F872"/>
       <c r="G872" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H872" t="s">
         <v>1795</v>
-      </c>
-      <c r="H872" t="s">
-        <v>1796</v>
       </c>
       <c r="I872" t="s">
         <v>2</v>
@@ -36108,10 +36109,10 @@
       <c r="E873"/>
       <c r="F873"/>
       <c r="G873" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H873" t="s">
         <v>1795</v>
-      </c>
-      <c r="H873" t="s">
-        <v>1796</v>
       </c>
       <c r="I873" t="s">
         <v>2</v>
@@ -37698,142 +37699,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7DBBDC-CF62-0643-B37C-C1DC4812746F}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C26" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C27" t="s">
         <v>2119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C29" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C30" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>858</v>
@@ -37842,12 +37843,12 @@
         <v>859</v>
       </c>
       <c r="E33" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>861</v>
@@ -37856,12 +37857,12 @@
         <v>862</v>
       </c>
       <c r="E34" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -37870,7 +37871,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
@@ -37882,8 +37883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B68" sqref="A68:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37900,7 +37901,7 @@
         <v>1758</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1779</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="2" spans="1:14">
